--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -285,156 +627,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -583,7 +925,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0">
         <v>74.692442882249566</v>
@@ -732,7 +1074,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B4" s="0">
         <v>98.945518453427056</v>
@@ -881,7 +1223,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -1030,7 +1372,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B6" s="0">
         <v>75.409836065573771</v>
@@ -1179,7 +1521,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0">
         <v>84.935755427558703</v>
@@ -1328,7 +1670,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0">
         <v>97.474523704031895</v>
@@ -1477,7 +1819,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0">
         <v>85.044247787610615</v>

--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>Row</t>
   </si>
@@ -370,6 +370,861 @@
   </si>
   <si>
     <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_G</t>
@@ -574,7 +1429,7 @@
   <dimension ref="A1:AW9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="true"/>
+    <col min="1" max="1" width="12.53125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -627,156 +1482,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>123</v>
+        <v>408</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>125</v>
+        <v>410</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>128</v>
+        <v>413</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>129</v>
+        <v>414</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>137</v>
+        <v>422</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>140</v>
+        <v>425</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>144</v>
+        <v>429</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>149</v>
+        <v>434</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>150</v>
+        <v>435</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>151</v>
+        <v>436</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>153</v>
+        <v>438</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>154</v>
+        <v>439</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>156</v>
+        <v>441</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>166</v>
+        <v>451</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>167</v>
+        <v>452</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>169</v>
+        <v>454</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>170</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -925,7 +1780,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>401</v>
       </c>
       <c r="B3" s="0">
         <v>74.692442882249566</v>
@@ -1074,7 +1929,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>402</v>
       </c>
       <c r="B4" s="0">
         <v>98.945518453427056</v>
@@ -1223,7 +2078,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -1372,7 +2227,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>404</v>
       </c>
       <c r="B6" s="0">
         <v>75.409836065573771</v>
@@ -1521,7 +2376,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="B7" s="0">
         <v>84.935755427558703</v>
@@ -1670,7 +2525,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>406</v>
       </c>
       <c r="B8" s="0">
         <v>97.474523704031895</v>
@@ -1819,151 +2674,151 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="B9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.601769911504419</v>
       </c>
       <c r="C9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.026548672566378</v>
       </c>
       <c r="D9" s="0">
-        <v>85.044247787610615</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.451327433628322</v>
       </c>
       <c r="F9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.849557522123888</v>
       </c>
       <c r="G9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.274336283185846</v>
       </c>
       <c r="H9" s="0">
-        <v>85.044247787610615</v>
+        <v>82.743362831858406</v>
       </c>
       <c r="I9" s="0">
-        <v>85.044247787610615</v>
+        <v>83.318584070796462</v>
       </c>
       <c r="J9" s="0">
-        <v>85.044247787610615</v>
+        <v>81.769911504424769</v>
       </c>
       <c r="K9" s="0">
-        <v>85.044247787610615</v>
+        <v>82.30088495575221</v>
       </c>
       <c r="L9" s="0">
-        <v>85.044247787610615</v>
+        <v>80.04424778761063</v>
       </c>
       <c r="M9" s="0">
-        <v>85.044247787610615</v>
+        <v>81.946902654867259</v>
       </c>
       <c r="N9" s="0">
-        <v>85.044247787610615</v>
+        <v>82.079646017699119</v>
       </c>
       <c r="O9" s="0">
-        <v>85.044247787610615</v>
+        <v>81.106194690265482</v>
       </c>
       <c r="P9" s="0">
-        <v>85.044247787610615</v>
+        <v>81.504424778761063</v>
       </c>
       <c r="Q9" s="0">
-        <v>85.044247787610615</v>
+        <v>91.637168141592923</v>
       </c>
       <c r="R9" s="0">
-        <v>85.044247787610615</v>
+        <v>92.16814159292035</v>
       </c>
       <c r="S9" s="0">
-        <v>85.044247787610615</v>
+        <v>94.646017699115049</v>
       </c>
       <c r="T9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.495575221238937</v>
       </c>
       <c r="U9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.495575221238937</v>
       </c>
       <c r="V9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.159292035398224</v>
       </c>
       <c r="W9" s="0">
-        <v>85.044247787610615</v>
+        <v>87.787610619469021</v>
       </c>
       <c r="X9" s="0">
-        <v>85.044247787610615</v>
+        <v>87.920353982300881</v>
       </c>
       <c r="Y9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.185840707964601</v>
       </c>
       <c r="Z9" s="0">
-        <v>85.044247787610615</v>
+        <v>85.088495575221231</v>
       </c>
       <c r="AA9" s="0">
-        <v>85.044247787610615</v>
+        <v>83.141592920353986</v>
       </c>
       <c r="AB9" s="0">
-        <v>85.044247787610615</v>
+        <v>85.575221238938042</v>
       </c>
       <c r="AC9" s="0">
-        <v>85.044247787610615</v>
+        <v>84.778761061946909</v>
       </c>
       <c r="AD9" s="0">
-        <v>85.044247787610615</v>
+        <v>80</v>
       </c>
       <c r="AE9" s="0">
-        <v>85.044247787610615</v>
+        <v>92.30088495575221</v>
       </c>
       <c r="AF9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.911504424778769</v>
       </c>
       <c r="AG9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.495575221238937</v>
       </c>
       <c r="AH9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.601769911504419</v>
       </c>
       <c r="AI9" s="0">
-        <v>85.044247787610615</v>
+        <v>91.327433628318587</v>
       </c>
       <c r="AJ9" s="0">
-        <v>85.044247787610615</v>
+        <v>89.380530973451329</v>
       </c>
       <c r="AK9" s="0">
-        <v>85.044247787610615</v>
+        <v>90.530973451327441</v>
       </c>
       <c r="AL9" s="0">
-        <v>85.044247787610615</v>
+        <v>86.061946902654867</v>
       </c>
       <c r="AM9" s="0">
-        <v>85.044247787610615</v>
+        <v>87.964601769911496</v>
       </c>
       <c r="AN9" s="0">
-        <v>85.044247787610615</v>
+        <v>86.371681415929203</v>
       </c>
       <c r="AO9" s="0">
-        <v>85.044247787610615</v>
+        <v>83.230088495575217</v>
       </c>
       <c r="AP9" s="0">
-        <v>85.044247787610615</v>
+        <v>84.292035398230098</v>
       </c>
       <c r="AQ9" s="0">
-        <v>85.044247787610615</v>
+        <v>85</v>
       </c>
       <c r="AR9" s="0">
-        <v>85.044247787610615</v>
+        <v>82.079646017699119</v>
       </c>
       <c r="AS9" s="0">
-        <v>85.044247787610615</v>
+        <v>88.893805309734503</v>
       </c>
       <c r="AT9" s="0">
-        <v>85.044247787610615</v>
+        <v>85.707964601769916</v>
       </c>
       <c r="AU9" s="0">
-        <v>85.044247787610615</v>
+        <v>90</v>
       </c>
       <c r="AV9" s="0">
-        <v>85.044247787610615</v>
+        <v>82.964601769911511</v>
       </c>
       <c r="AW9" s="0">
-        <v>85.044247787610615</v>
+        <v>90.265486725663706</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="798">
   <si>
     <t>Row</t>
   </si>
@@ -370,6 +370,1032 @@
   </si>
   <si>
     <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_G</t>
@@ -1482,156 +2508,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>399</v>
+        <v>741</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>750</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>409</v>
+        <v>751</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>410</v>
+        <v>752</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>411</v>
+        <v>753</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>413</v>
+        <v>755</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>414</v>
+        <v>756</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>415</v>
+        <v>757</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>416</v>
+        <v>758</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>417</v>
+        <v>759</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>418</v>
+        <v>760</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>419</v>
+        <v>761</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>420</v>
+        <v>762</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>421</v>
+        <v>763</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>422</v>
+        <v>764</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>423</v>
+        <v>765</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>424</v>
+        <v>766</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>425</v>
+        <v>767</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>426</v>
+        <v>768</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>427</v>
+        <v>769</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>428</v>
+        <v>770</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>429</v>
+        <v>771</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>430</v>
+        <v>772</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>431</v>
+        <v>773</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>432</v>
+        <v>774</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>433</v>
+        <v>775</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>434</v>
+        <v>776</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>435</v>
+        <v>777</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>436</v>
+        <v>778</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>437</v>
+        <v>779</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>438</v>
+        <v>780</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>439</v>
+        <v>781</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>440</v>
+        <v>782</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>441</v>
+        <v>783</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>442</v>
+        <v>784</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>443</v>
+        <v>785</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>444</v>
+        <v>786</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>445</v>
+        <v>787</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>446</v>
+        <v>788</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>447</v>
+        <v>789</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>448</v>
+        <v>790</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>449</v>
+        <v>791</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>450</v>
+        <v>792</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>451</v>
+        <v>793</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>452</v>
+        <v>794</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>453</v>
+        <v>795</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>454</v>
+        <v>796</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>455</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>400</v>
+        <v>742</v>
       </c>
       <c r="B2" s="0">
         <v>52.548330404217921</v>
@@ -1780,7 +2806,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>401</v>
+        <v>743</v>
       </c>
       <c r="B3" s="0">
         <v>74.692442882249566</v>
@@ -1929,7 +2955,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>402</v>
+        <v>744</v>
       </c>
       <c r="B4" s="0">
         <v>98.945518453427056</v>
@@ -2078,7 +3104,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>403</v>
+        <v>745</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -2227,7 +3253,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>404</v>
+        <v>746</v>
       </c>
       <c r="B6" s="0">
         <v>75.409836065573771</v>
@@ -2376,7 +3402,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>405</v>
+        <v>747</v>
       </c>
       <c r="B7" s="0">
         <v>84.935755427558703</v>
@@ -2525,7 +3551,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>406</v>
+        <v>748</v>
       </c>
       <c r="B8" s="0">
         <v>97.474523704031895</v>
@@ -2674,7 +3700,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>407</v>
+        <v>749</v>
       </c>
       <c r="B9" s="0">
         <v>89.601769911504419</v>

--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t>Row</t>
   </si>
@@ -370,6 +370,177 @@
   </si>
   <si>
     <t>Var4</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
   </si>
   <si>
     <t>HK_R_acc_G</t>
@@ -2508,603 +2679,603 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>750</v>
+        <v>807</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>751</v>
+        <v>808</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>761</v>
+        <v>818</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>769</v>
+        <v>826</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>772</v>
+        <v>829</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>774</v>
+        <v>831</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>775</v>
+        <v>832</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>776</v>
+        <v>833</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>778</v>
+        <v>835</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>779</v>
+        <v>836</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>780</v>
+        <v>837</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>783</v>
+        <v>840</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>785</v>
+        <v>842</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>794</v>
+        <v>851</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>797</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="B2" s="0">
-        <v>52.548330404217921</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="C2" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
       <c r="D2" s="0">
-        <v>52.3725834797891</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="E2" s="0">
-        <v>51.845342706502642</v>
+        <v>72.962962962962962</v>
       </c>
       <c r="F2" s="0">
-        <v>51.318101933216163</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="G2" s="0">
-        <v>51.66959578207382</v>
+        <v>72.592592592592595</v>
       </c>
       <c r="H2" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="I2" s="0">
-        <v>53.251318101933222</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="J2" s="0">
-        <v>53.251318101933222</v>
+        <v>75.925925925925924</v>
       </c>
       <c r="K2" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="L2" s="0">
-        <v>53.075571177504386</v>
+        <v>74.444444444444443</v>
       </c>
       <c r="M2" s="0">
-        <v>52.899824253075565</v>
+        <v>73.703703703703709</v>
       </c>
       <c r="N2" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="O2" s="0">
-        <v>54.481546572934967</v>
+        <v>75.925925925925924</v>
       </c>
       <c r="P2" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="Q2" s="0">
-        <v>52.724077328646743</v>
+        <v>74.444444444444443</v>
       </c>
       <c r="R2" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="S2" s="0">
-        <v>52.548330404217921</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="T2" s="0">
-        <v>53.251318101933222</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="U2" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="V2" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="W2" s="0">
-        <v>51.142355008787341</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="X2" s="0">
-        <v>50.087873462214418</v>
+        <v>71.481481481481481</v>
       </c>
       <c r="Y2" s="0">
-        <v>51.142355008787341</v>
+        <v>70.740740740740733</v>
       </c>
       <c r="Z2" s="0">
-        <v>52.899824253075565</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="AA2" s="0">
-        <v>52.724077328646743</v>
+        <v>73.703703703703709</v>
       </c>
       <c r="AB2" s="0">
-        <v>53.602811950790866</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="AC2" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
       <c r="AD2" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="AE2" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
       <c r="AF2" s="0">
-        <v>50.615114235500883</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="AG2" s="0">
-        <v>51.66959578207382</v>
+        <v>71.851851851851862</v>
       </c>
       <c r="AH2" s="0">
-        <v>51.845342706502642</v>
+        <v>72.592592592592595</v>
       </c>
       <c r="AI2" s="0">
-        <v>52.196836555360285</v>
+        <v>72.222222222222214</v>
       </c>
       <c r="AJ2" s="0">
-        <v>51.66959578207382</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="AK2" s="0">
-        <v>56.063268892794369</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="AL2" s="0">
-        <v>51.142355008787341</v>
+        <v>70</v>
       </c>
       <c r="AM2" s="0">
-        <v>51.845342706502642</v>
+        <v>70</v>
       </c>
       <c r="AN2" s="0">
-        <v>51.318101933216163</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="AO2" s="0">
-        <v>52.899824253075565</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="AP2" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
       <c r="AQ2" s="0">
-        <v>53.954305799648509</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="AR2" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="AS2" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
       <c r="AT2" s="0">
-        <v>52.548330404217921</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="AU2" s="0">
-        <v>51.845342706502642</v>
+        <v>71.481481481481481</v>
       </c>
       <c r="AV2" s="0">
-        <v>54.481546572934967</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="AW2" s="0">
-        <v>53.251318101933222</v>
+        <v>72.962962962962962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="B3" s="0">
-        <v>74.692442882249566</v>
+        <v>84.81481481481481</v>
       </c>
       <c r="C3" s="0">
-        <v>74.340949033391908</v>
+        <v>83.703703703703695</v>
       </c>
       <c r="D3" s="0">
-        <v>76.801405975395426</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="E3" s="0">
-        <v>70.298769771528995</v>
+        <v>79.629629629629633</v>
       </c>
       <c r="F3" s="0">
-        <v>73.286467486818978</v>
+        <v>81.481481481481481</v>
       </c>
       <c r="G3" s="0">
-        <v>73.4622144112478</v>
+        <v>81.481481481481481</v>
       </c>
       <c r="H3" s="0">
-        <v>80.843585237258353</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="I3" s="0">
-        <v>81.370826010544818</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J3" s="0">
-        <v>80.140597539543052</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K3" s="0">
-        <v>81.195079086115996</v>
+        <v>88.518518518518519</v>
       </c>
       <c r="L3" s="0">
-        <v>67.486818980667834</v>
+        <v>76.296296296296291</v>
       </c>
       <c r="M3" s="0">
-        <v>73.110720562390156</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="N3" s="0">
-        <v>76.977152899824247</v>
+        <v>88.518518518518519</v>
       </c>
       <c r="O3" s="0">
-        <v>76.801405975395426</v>
+        <v>87.407407407407405</v>
       </c>
       <c r="P3" s="0">
-        <v>77.328646748681891</v>
+        <v>88.148148148148152</v>
       </c>
       <c r="Q3" s="0">
-        <v>64.850615114235495</v>
+        <v>80</v>
       </c>
       <c r="R3" s="0">
-        <v>68.014059753954299</v>
+        <v>81.851851851851848</v>
       </c>
       <c r="S3" s="0">
-        <v>71.880492091388405</v>
+        <v>84.074074074074076</v>
       </c>
       <c r="T3" s="0">
-        <v>78.734622144112478</v>
+        <v>85.925925925925924</v>
       </c>
       <c r="U3" s="0">
-        <v>79.96485061511423</v>
+        <v>87.407407407407405</v>
       </c>
       <c r="V3" s="0">
-        <v>79.086115992970122</v>
+        <v>87.407407407407405</v>
       </c>
       <c r="W3" s="0">
-        <v>67.486818980667834</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="X3" s="0">
-        <v>65.37785588752196</v>
+        <v>77.407407407407405</v>
       </c>
       <c r="Y3" s="0">
-        <v>65.026362038664317</v>
+        <v>76.296296296296291</v>
       </c>
       <c r="Z3" s="0">
-        <v>75.395430579964852</v>
+        <v>87.407407407407405</v>
       </c>
       <c r="AA3" s="0">
-        <v>72.583479789103691</v>
+        <v>84.444444444444443</v>
       </c>
       <c r="AB3" s="0">
-        <v>73.989455184534265</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="AC3" s="0">
-        <v>73.286467486818978</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="AD3" s="0">
-        <v>69.947275922671352</v>
+        <v>81.851851851851848</v>
       </c>
       <c r="AE3" s="0">
-        <v>73.4622144112478</v>
+        <v>83.703703703703695</v>
       </c>
       <c r="AF3" s="0">
-        <v>76.625659050966604</v>
+        <v>81.851851851851848</v>
       </c>
       <c r="AG3" s="0">
-        <v>76.977152899824247</v>
+        <v>82.962962962962962</v>
       </c>
       <c r="AH3" s="0">
-        <v>77.328646748681891</v>
+        <v>82.222222222222214</v>
       </c>
       <c r="AI3" s="0">
-        <v>69.77152899824253</v>
+        <v>80</v>
       </c>
       <c r="AJ3" s="0">
-        <v>70.474516695957817</v>
+        <v>80.370370370370367</v>
       </c>
       <c r="AK3" s="0">
-        <v>63.620386643233736</v>
+        <v>78.518518518518519</v>
       </c>
       <c r="AL3" s="0">
-        <v>71.880492091388405</v>
+        <v>80.370370370370367</v>
       </c>
       <c r="AM3" s="0">
-        <v>67.135325131810191</v>
+        <v>77.407407407407405</v>
       </c>
       <c r="AN3" s="0">
-        <v>67.838312829525478</v>
+        <v>77.407407407407405</v>
       </c>
       <c r="AO3" s="0">
-        <v>74.340949033391908</v>
+        <v>85.925925925925924</v>
       </c>
       <c r="AP3" s="0">
-        <v>76.449912126537782</v>
+        <v>87.037037037037038</v>
       </c>
       <c r="AQ3" s="0">
-        <v>76.449912126537782</v>
+        <v>86.296296296296291</v>
       </c>
       <c r="AR3" s="0">
-        <v>75.922671353251317</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="AS3" s="0">
-        <v>76.098418277680139</v>
+        <v>85.925925925925924</v>
       </c>
       <c r="AT3" s="0">
-        <v>76.098418277680139</v>
+        <v>85.555555555555557</v>
       </c>
       <c r="AU3" s="0">
-        <v>69.244288224956065</v>
+        <v>78.888888888888886</v>
       </c>
       <c r="AV3" s="0">
-        <v>68.541300527240779</v>
+        <v>79.629629629629633</v>
       </c>
       <c r="AW3" s="0">
-        <v>73.813708260105443</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="B4" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="C4" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="D4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="E4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="F4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="G4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="H4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="I4" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="J4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="K4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="L4" s="0">
-        <v>98.242530755711783</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="M4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="N4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="O4" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="P4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="Q4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="R4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="S4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="T4" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="U4" s="0">
-        <v>98.594024604569412</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="V4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="W4" s="0">
-        <v>98.418277680140591</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="X4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="Y4" s="0">
-        <v>98.066783831282962</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="Z4" s="0">
         <v>100</v>
       </c>
       <c r="AA4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AB4" s="0">
         <v>100</v>
       </c>
       <c r="AC4" s="0">
-        <v>98.418277680140591</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="AD4" s="0">
-        <v>98.594024604569412</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="AE4" s="0">
-        <v>98.945518453427056</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="AF4" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="AG4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AH4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AI4" s="0">
-        <v>99.121265377855877</v>
+        <v>99.259259259259252</v>
       </c>
       <c r="AJ4" s="0">
-        <v>97.89103690685414</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="AK4" s="0">
-        <v>97.539543057996482</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="AL4" s="0">
-        <v>98.418277680140591</v>
+        <v>97.407407407407405</v>
       </c>
       <c r="AM4" s="0">
-        <v>99.648506151142357</v>
+        <v>99.629629629629633</v>
       </c>
       <c r="AN4" s="0">
-        <v>99.824253075571178</v>
+        <v>100</v>
       </c>
       <c r="AO4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AP4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AQ4" s="0">
-        <v>98.769771528998234</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="AR4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AS4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AT4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AU4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AV4" s="0">
-        <v>98.769771528998234</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="AW4" s="0">
-        <v>98.945518453427056</v>
+        <v>98.148148148148152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>745</v>
+        <v>802</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3253,598 +3424,598 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="B6" s="0">
-        <v>75.409836065573771</v>
+        <v>85.533184190902318</v>
       </c>
       <c r="C6" s="0">
-        <v>75.188303057155508</v>
+        <v>84.041759880686044</v>
       </c>
       <c r="D6" s="0">
-        <v>75.409836065573771</v>
+        <v>84.116331096196873</v>
       </c>
       <c r="E6" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
       <c r="F6" s="0">
-        <v>72.707133362871062</v>
+        <v>87.24832214765101</v>
       </c>
       <c r="G6" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
       <c r="H6" s="0">
-        <v>75.011076650420918</v>
+        <v>87.994034302759133</v>
       </c>
       <c r="I6" s="0">
-        <v>75.321222862206469</v>
+        <v>87.322893363161825</v>
       </c>
       <c r="J6" s="0">
-        <v>74.656623836951709</v>
+        <v>87.994034302759133</v>
       </c>
       <c r="K6" s="0">
-        <v>74.96677004873726</v>
+        <v>87.844891871737502</v>
       </c>
       <c r="L6" s="0">
-        <v>75.631369073992033</v>
+        <v>89.858314690529454</v>
       </c>
       <c r="M6" s="0">
-        <v>78.378378378378372</v>
+        <v>89.410887397464577</v>
       </c>
       <c r="N6" s="0">
-        <v>74.302171023482501</v>
+        <v>87.695749440715886</v>
       </c>
       <c r="O6" s="0">
-        <v>75.409836065573771</v>
+        <v>87.770320656226701</v>
       </c>
       <c r="P6" s="0">
-        <v>74.257864421798843</v>
+        <v>87.770320656226701</v>
       </c>
       <c r="Q6" s="0">
-        <v>76.295968099246792</v>
+        <v>87.24832214765101</v>
       </c>
       <c r="R6" s="0">
-        <v>77.802392556490915</v>
+        <v>89.709172259507824</v>
       </c>
       <c r="S6" s="0">
-        <v>77.447939743021706</v>
+        <v>89.709172259507824</v>
       </c>
       <c r="T6" s="0">
-        <v>76.561807709348699</v>
+        <v>84.936614466815811</v>
       </c>
       <c r="U6" s="0">
-        <v>76.473194505981397</v>
+        <v>85.011185682326612</v>
       </c>
       <c r="V6" s="0">
-        <v>76.517501107665041</v>
+        <v>85.011185682326612</v>
       </c>
       <c r="W6" s="0">
-        <v>76.473194505981397</v>
+        <v>83.892617449664428</v>
       </c>
       <c r="X6" s="0">
-        <v>77.226406734603458</v>
+        <v>84.862043251304996</v>
       </c>
       <c r="Y6" s="0">
-        <v>76.871953921134249</v>
+        <v>84.56375838926175</v>
       </c>
       <c r="Z6" s="0">
-        <v>75.011076650420918</v>
+        <v>87.24832214765101</v>
       </c>
       <c r="AA6" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
       <c r="AB6" s="0">
-        <v>75.099689853788206</v>
+        <v>87.24832214765101</v>
       </c>
       <c r="AC6" s="0">
-        <v>82.188746123172351</v>
+        <v>87.994034302759133</v>
       </c>
       <c r="AD6" s="0">
-        <v>81.834293309703142</v>
+        <v>87.994034302759133</v>
       </c>
       <c r="AE6" s="0">
-        <v>78.821444395214897</v>
+        <v>88.217747949291564</v>
       </c>
       <c r="AF6" s="0">
-        <v>75.321222862206469</v>
+        <v>85.234899328859058</v>
       </c>
       <c r="AG6" s="0">
-        <v>75.232609658839166</v>
+        <v>85.234899328859058</v>
       </c>
       <c r="AH6" s="0">
-        <v>75.365529463890127</v>
+        <v>85.160328113348243</v>
       </c>
       <c r="AI6" s="0">
-        <v>77.1821001329198</v>
+        <v>82.401193139448168</v>
       </c>
       <c r="AJ6" s="0">
-        <v>77.891005759858217</v>
+        <v>82.326621923937353</v>
       </c>
       <c r="AK6" s="0">
-        <v>80.416482055826322</v>
+        <v>85.533184190902318</v>
       </c>
       <c r="AL6" s="0">
-        <v>77.1821001329198</v>
+        <v>82.177479492915737</v>
       </c>
       <c r="AM6" s="0">
-        <v>76.739034116083289</v>
+        <v>82.252050708426552</v>
       </c>
       <c r="AN6" s="0">
-        <v>77.580859548072667</v>
+        <v>84.340044742729305</v>
       </c>
       <c r="AO6" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
       <c r="AP6" s="0">
-        <v>75.454142667257415</v>
+        <v>86.502609992542872</v>
       </c>
       <c r="AQ6" s="0">
-        <v>75.897208684093926</v>
+        <v>86.800894854586133</v>
       </c>
       <c r="AR6" s="0">
-        <v>75.631369073992033</v>
+        <v>86.800894854586133</v>
       </c>
       <c r="AS6" s="0">
-        <v>75.276916260522825</v>
+        <v>85.980611483967181</v>
       </c>
       <c r="AT6" s="0">
-        <v>75.365529463890127</v>
+        <v>86.577181208053688</v>
       </c>
       <c r="AU6" s="0">
-        <v>74.124944616747896</v>
+        <v>86.428038777032071</v>
       </c>
       <c r="AV6" s="0">
-        <v>73.238812583074875</v>
+        <v>82.401193139448168</v>
       </c>
       <c r="AW6" s="0">
-        <v>75.675675675675677</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>747</v>
+        <v>804</v>
       </c>
       <c r="B7" s="0">
-        <v>84.935755427558703</v>
+        <v>87.39746457867264</v>
       </c>
       <c r="C7" s="0">
-        <v>85.999113867966329</v>
+        <v>87.695749440715886</v>
       </c>
       <c r="D7" s="0">
-        <v>86.087727071333632</v>
+        <v>88.441461595824009</v>
       </c>
       <c r="E7" s="0">
-        <v>89.720868409392992</v>
+        <v>91.349739000745714</v>
       </c>
       <c r="F7" s="0">
-        <v>90.474080638015067</v>
+        <v>91.648023862788961</v>
       </c>
       <c r="G7" s="0">
-        <v>90.252547629596819</v>
+        <v>91.648023862788961</v>
       </c>
       <c r="H7" s="0">
-        <v>80.416482055826322</v>
+        <v>78.374347501864278</v>
       </c>
       <c r="I7" s="0">
-        <v>81.745680106335854</v>
+        <v>80.536912751677846</v>
       </c>
       <c r="J7" s="0">
-        <v>81.214000886132027</v>
+        <v>80.686055182699477</v>
       </c>
       <c r="K7" s="0">
-        <v>80.283562250775361</v>
+        <v>78.523489932885909</v>
       </c>
       <c r="L7" s="0">
-        <v>79.751883030571562</v>
+        <v>81.282624906785983</v>
       </c>
       <c r="M7" s="0">
-        <v>82.498892334957901</v>
+        <v>84.041759880686044</v>
       </c>
       <c r="N7" s="0">
-        <v>80.50509525919361</v>
+        <v>79.791200596569723</v>
       </c>
       <c r="O7" s="0">
-        <v>80.549401860877268</v>
+        <v>79.716629381058908</v>
       </c>
       <c r="P7" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
       <c r="Q7" s="0">
-        <v>80.50509525919361</v>
+        <v>81.058911260253538</v>
       </c>
       <c r="R7" s="0">
-        <v>81.922906513070444</v>
+        <v>83.743475018642798</v>
       </c>
       <c r="S7" s="0">
-        <v>87.284005316792204</v>
+        <v>87.322893363161825</v>
       </c>
       <c r="T7" s="0">
-        <v>90.429774036331409</v>
+        <v>88.73974645786727</v>
       </c>
       <c r="U7" s="0">
-        <v>90.784226849800618</v>
+        <v>89.112602535421331</v>
       </c>
       <c r="V7" s="0">
-        <v>90.739920248116974</v>
+        <v>88.814317673378071</v>
       </c>
       <c r="W7" s="0">
-        <v>84.09392999556934</v>
+        <v>87.173750932140194</v>
       </c>
       <c r="X7" s="0">
-        <v>87.727071333628714</v>
+        <v>90.007457121551084</v>
       </c>
       <c r="Y7" s="0">
-        <v>87.372618520159506</v>
+        <v>89.932885906040269</v>
       </c>
       <c r="Z7" s="0">
-        <v>83.916703588834736</v>
+        <v>84.41461595824012</v>
       </c>
       <c r="AA7" s="0">
-        <v>83.473637571998225</v>
+        <v>84.190902311707688</v>
       </c>
       <c r="AB7" s="0">
-        <v>83.872396987151092</v>
+        <v>84.489187173750935</v>
       </c>
       <c r="AC7" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
       <c r="AD7" s="0">
-        <v>82.055826318121404</v>
+        <v>81.282624906785983</v>
       </c>
       <c r="AE7" s="0">
-        <v>81.834293309703142</v>
+        <v>82.177479492915737</v>
       </c>
       <c r="AF7" s="0">
-        <v>90.739920248116974</v>
+        <v>88.292319164802393</v>
       </c>
       <c r="AG7" s="0">
-        <v>93.752769162605233</v>
+        <v>94.034302759134974</v>
       </c>
       <c r="AH7" s="0">
-        <v>92.778023925564909</v>
+        <v>91.648023862788961</v>
       </c>
       <c r="AI7" s="0">
-        <v>88.037217545414265</v>
+        <v>86.577181208053688</v>
       </c>
       <c r="AJ7" s="0">
-        <v>92.246344705361096</v>
+        <v>93.586875466070097</v>
       </c>
       <c r="AK7" s="0">
-        <v>82.897651750110768</v>
+        <v>83.22147651006712</v>
       </c>
       <c r="AL7" s="0">
-        <v>89.144882587505535</v>
+        <v>90.23117076808353</v>
       </c>
       <c r="AM7" s="0">
-        <v>85.644661054497121</v>
+        <v>86.204325130499626</v>
       </c>
       <c r="AN7" s="0">
-        <v>84.714222419140455</v>
+        <v>87.099179716629379</v>
       </c>
       <c r="AO7" s="0">
-        <v>81.524147097917592</v>
+        <v>81.208053691275168</v>
       </c>
       <c r="AP7" s="0">
-        <v>82.055826318121404</v>
+        <v>81.357196122296799</v>
       </c>
       <c r="AQ7" s="0">
-        <v>81.346920691182987</v>
+        <v>79.716629381058908</v>
       </c>
       <c r="AR7" s="0">
-        <v>81.701373504652196</v>
+        <v>80.462341536167031</v>
       </c>
       <c r="AS7" s="0">
-        <v>84.758529020824099</v>
+        <v>84.787472035794181</v>
       </c>
       <c r="AT7" s="0">
-        <v>86.220646876384578</v>
+        <v>84.041759880686044</v>
       </c>
       <c r="AU7" s="0">
-        <v>80.903854674346476</v>
+        <v>81.133482475764353</v>
       </c>
       <c r="AV7" s="0">
-        <v>82.321665928223311</v>
+        <v>81.133482475764353</v>
       </c>
       <c r="AW7" s="0">
-        <v>81.789986708019484</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>748</v>
+        <v>805</v>
       </c>
       <c r="B8" s="0">
-        <v>97.474523704031895</v>
+        <v>97.16629381058911</v>
       </c>
       <c r="C8" s="0">
-        <v>99.025254762959676</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="D8" s="0">
-        <v>97.563136907399212</v>
+        <v>96.942580164056665</v>
       </c>
       <c r="E8" s="0">
-        <v>99.379707576428885</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="F8" s="0">
-        <v>99.202481169694295</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="G8" s="0">
-        <v>99.379707576428885</v>
+        <v>99.254287844891877</v>
       </c>
       <c r="H8" s="0">
-        <v>98.404962339388575</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="I8" s="0">
-        <v>97.252990695613647</v>
+        <v>96.196868008948542</v>
       </c>
       <c r="J8" s="0">
-        <v>97.6517501107665</v>
+        <v>97.390007457121555</v>
       </c>
       <c r="K8" s="0">
-        <v>97.91758972086842</v>
+        <v>97.464578672632356</v>
       </c>
       <c r="L8" s="0">
-        <v>97.164377492246345</v>
+        <v>96.644295302013433</v>
       </c>
       <c r="M8" s="0">
-        <v>97.563136907399212</v>
+        <v>97.31543624161074</v>
       </c>
       <c r="N8" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="O8" s="0">
-        <v>97.341603898980949</v>
+        <v>97.613721103654001</v>
       </c>
       <c r="P8" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="Q8" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="R8" s="0">
-        <v>99.335400974745241</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="S8" s="0">
-        <v>98.89233495790873</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="T8" s="0">
-        <v>99.202481169694295</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="U8" s="0">
-        <v>99.246787771377925</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="V8" s="0">
-        <v>99.202481169694295</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="W8" s="0">
-        <v>97.91758972086842</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="X8" s="0">
-        <v>98.582188746123165</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="Y8" s="0">
-        <v>98.626495347806824</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="Z8" s="0">
-        <v>98.404962339388575</v>
+        <v>97.986577181208062</v>
       </c>
       <c r="AA8" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="AB8" s="0">
-        <v>99.512627381479845</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="AC8" s="0">
-        <v>98.670801949490468</v>
+        <v>98.881431767337816</v>
       </c>
       <c r="AD8" s="0">
-        <v>99.069561364643334</v>
+        <v>98.806860551826986</v>
       </c>
       <c r="AE8" s="0">
-        <v>99.246787771377925</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="AF8" s="0">
-        <v>99.291094373061583</v>
+        <v>99.179716629381048</v>
       </c>
       <c r="AG8" s="0">
-        <v>99.202481169694295</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="AH8" s="0">
-        <v>99.468320779796187</v>
+        <v>99.328859060402692</v>
       </c>
       <c r="AI8" s="0">
-        <v>98.715108551174126</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="AJ8" s="0">
-        <v>98.582188746123165</v>
+        <v>98.359433258762124</v>
       </c>
       <c r="AK8" s="0">
-        <v>98.050509525919367</v>
+        <v>98.210290827740494</v>
       </c>
       <c r="AL8" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="AM8" s="0">
-        <v>98.493575542755877</v>
+        <v>98.583146905294555</v>
       </c>
       <c r="AN8" s="0">
-        <v>98.936641559592374</v>
+        <v>98.65771812080537</v>
       </c>
       <c r="AO8" s="0">
-        <v>99.158174568010637</v>
+        <v>98.881431767337816</v>
       </c>
       <c r="AP8" s="0">
-        <v>99.424014178112543</v>
+        <v>99.254287844891877</v>
       </c>
       <c r="AQ8" s="0">
-        <v>99.379707576428885</v>
+        <v>99.105145413870247</v>
       </c>
       <c r="AR8" s="0">
-        <v>99.113867966326978</v>
+        <v>99.030574198359432</v>
       </c>
       <c r="AS8" s="0">
-        <v>98.980948161276032</v>
+        <v>98.806860551826986</v>
       </c>
       <c r="AT8" s="0">
-        <v>99.069561364643334</v>
+        <v>98.956002982848617</v>
       </c>
       <c r="AU8" s="0">
-        <v>98.360655737704917</v>
+        <v>98.434004474272925</v>
       </c>
       <c r="AV8" s="0">
-        <v>97.696056712450158</v>
+        <v>96.718866517524233</v>
       </c>
       <c r="AW8" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
       <c r="B9" s="0">
-        <v>89.601769911504419</v>
+        <v>93.139448173005221</v>
       </c>
       <c r="C9" s="0">
-        <v>89.026548672566378</v>
+        <v>92.244593586875467</v>
       </c>
       <c r="D9" s="0">
-        <v>90</v>
+        <v>93.437733035048481</v>
       </c>
       <c r="E9" s="0">
-        <v>88.451327433628322</v>
+        <v>89.560029828486208</v>
       </c>
       <c r="F9" s="0">
-        <v>88.849557522123888</v>
+        <v>89.261744966442961</v>
       </c>
       <c r="G9" s="0">
-        <v>88.274336283185846</v>
+        <v>88.73974645786727</v>
       </c>
       <c r="H9" s="0">
-        <v>82.743362831858406</v>
+        <v>84.41461595824012</v>
       </c>
       <c r="I9" s="0">
-        <v>83.318584070796462</v>
+        <v>84.787472035794181</v>
       </c>
       <c r="J9" s="0">
-        <v>81.769911504424769</v>
+        <v>82.028337061894106</v>
       </c>
       <c r="K9" s="0">
-        <v>82.30088495575221</v>
+        <v>84.116331096196873</v>
       </c>
       <c r="L9" s="0">
-        <v>80.04424778761063</v>
+        <v>76.510067114093957</v>
       </c>
       <c r="M9" s="0">
-        <v>81.946902654867259</v>
+        <v>80.164056674123785</v>
       </c>
       <c r="N9" s="0">
-        <v>82.079646017699119</v>
+        <v>83.22147651006712</v>
       </c>
       <c r="O9" s="0">
-        <v>81.106194690265482</v>
+        <v>81.87919463087249</v>
       </c>
       <c r="P9" s="0">
-        <v>81.504424778761063</v>
+        <v>82.401193139448168</v>
       </c>
       <c r="Q9" s="0">
-        <v>91.637168141592923</v>
+        <v>92.393736017897083</v>
       </c>
       <c r="R9" s="0">
-        <v>92.16814159292035</v>
+        <v>95.227442207307973</v>
       </c>
       <c r="S9" s="0">
-        <v>94.646017699115049</v>
+        <v>97.017151379567494</v>
       </c>
       <c r="T9" s="0">
-        <v>88.495575221238937</v>
+        <v>91.946308724832221</v>
       </c>
       <c r="U9" s="0">
-        <v>88.495575221238937</v>
+        <v>92.393736017897083</v>
       </c>
       <c r="V9" s="0">
-        <v>89.159292035398224</v>
+        <v>92.915734526472775</v>
       </c>
       <c r="W9" s="0">
-        <v>87.787610619469021</v>
+        <v>90.902311707680838</v>
       </c>
       <c r="X9" s="0">
-        <v>87.920353982300881</v>
+        <v>90.23117076808353</v>
       </c>
       <c r="Y9" s="0">
-        <v>88.185840707964601</v>
+        <v>90.082028337061899</v>
       </c>
       <c r="Z9" s="0">
-        <v>85.088495575221231</v>
+        <v>85.90604026845638</v>
       </c>
       <c r="AA9" s="0">
-        <v>83.141592920353986</v>
+        <v>82.997762863534675</v>
       </c>
       <c r="AB9" s="0">
-        <v>85.575221238938042</v>
+        <v>86.278896346010441</v>
       </c>
       <c r="AC9" s="0">
-        <v>84.778761061946909</v>
+        <v>84.712900820283366</v>
       </c>
       <c r="AD9" s="0">
-        <v>80</v>
+        <v>77.926920208799402</v>
       </c>
       <c r="AE9" s="0">
-        <v>92.30088495575221</v>
+        <v>93.363161819537652</v>
       </c>
       <c r="AF9" s="0">
-        <v>89.911504424778769</v>
+        <v>95.973154362416096</v>
       </c>
       <c r="AG9" s="0">
-        <v>88.495575221238937</v>
+        <v>93.214019388516036</v>
       </c>
       <c r="AH9" s="0">
-        <v>89.601769911504419</v>
+        <v>96.346010439970172</v>
       </c>
       <c r="AI9" s="0">
-        <v>91.327433628318587</v>
+        <v>95.600298284862035</v>
       </c>
       <c r="AJ9" s="0">
-        <v>89.380530973451329</v>
+        <v>92.244593586875467</v>
       </c>
       <c r="AK9" s="0">
-        <v>90.530973451327441</v>
+        <v>94.034302759134974</v>
       </c>
       <c r="AL9" s="0">
-        <v>86.061946902654867</v>
+        <v>87.39746457867264</v>
       </c>
       <c r="AM9" s="0">
-        <v>87.964601769911496</v>
+        <v>90.529455630126776</v>
       </c>
       <c r="AN9" s="0">
-        <v>86.371681415929203</v>
+        <v>87.173750932140194</v>
       </c>
       <c r="AO9" s="0">
-        <v>83.230088495575217</v>
+        <v>83.296047725577921</v>
       </c>
       <c r="AP9" s="0">
-        <v>84.292035398230098</v>
+        <v>85.384041759880688</v>
       </c>
       <c r="AQ9" s="0">
-        <v>85</v>
+        <v>85.607755406413119</v>
       </c>
       <c r="AR9" s="0">
-        <v>82.079646017699119</v>
+        <v>81.058911260253538</v>
       </c>
       <c r="AS9" s="0">
-        <v>88.893805309734503</v>
+        <v>89.336316181953762</v>
       </c>
       <c r="AT9" s="0">
-        <v>85.707964601769916</v>
+        <v>83.892617449664428</v>
       </c>
       <c r="AU9" s="0">
-        <v>90</v>
+        <v>90.007457121551084</v>
       </c>
       <c r="AV9" s="0">
-        <v>82.964601769911511</v>
+        <v>82.699478001491428</v>
       </c>
       <c r="AW9" s="0">
-        <v>90.265486725663706</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="912">
   <si>
     <t>Row</t>
   </si>
@@ -2431,6 +2431,177 @@
   </si>
   <si>
     <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>Var7</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -2679,603 +2850,603 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>816</v>
+        <v>873</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>822</v>
+        <v>879</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>827</v>
+        <v>884</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>828</v>
+        <v>885</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>829</v>
+        <v>886</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>831</v>
+        <v>888</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>838</v>
+        <v>895</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>840</v>
+        <v>897</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>841</v>
+        <v>898</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>842</v>
+        <v>899</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>844</v>
+        <v>901</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>846</v>
+        <v>903</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>852</v>
+        <v>909</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>854</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
       <c r="B2" s="0">
-        <v>72.222222222222214</v>
+        <v>70.652173913043484</v>
       </c>
       <c r="C2" s="0">
-        <v>72.592592592592595</v>
+        <v>70.380434782608688</v>
       </c>
       <c r="D2" s="0">
-        <v>72.222222222222214</v>
+        <v>70.380434782608688</v>
       </c>
       <c r="E2" s="0">
-        <v>72.962962962962962</v>
+        <v>70.108695652173907</v>
       </c>
       <c r="F2" s="0">
-        <v>72.222222222222214</v>
+        <v>69.83695652173914</v>
       </c>
       <c r="G2" s="0">
-        <v>72.592592592592595</v>
+        <v>70.108695652173907</v>
       </c>
       <c r="H2" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="I2" s="0">
-        <v>74.074074074074076</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="J2" s="0">
-        <v>75.925925925925924</v>
+        <v>72.554347826086953</v>
       </c>
       <c r="K2" s="0">
-        <v>74.81481481481481</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="L2" s="0">
-        <v>74.444444444444443</v>
+        <v>70.652173913043484</v>
       </c>
       <c r="M2" s="0">
-        <v>73.703703703703709</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="N2" s="0">
-        <v>75.555555555555557</v>
+        <v>72.554347826086953</v>
       </c>
       <c r="O2" s="0">
-        <v>75.925925925925924</v>
+        <v>72.554347826086953</v>
       </c>
       <c r="P2" s="0">
-        <v>75.555555555555557</v>
+        <v>72.554347826086953</v>
       </c>
       <c r="Q2" s="0">
-        <v>74.444444444444443</v>
+        <v>71.467391304347828</v>
       </c>
       <c r="R2" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="S2" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="T2" s="0">
-        <v>74.81481481481481</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="U2" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="V2" s="0">
-        <v>75.18518518518519</v>
+        <v>72.554347826086953</v>
       </c>
       <c r="W2" s="0">
-        <v>71.111111111111114</v>
+        <v>69.021739130434781</v>
       </c>
       <c r="X2" s="0">
-        <v>71.481481481481481</v>
+        <v>70.380434782608688</v>
       </c>
       <c r="Y2" s="0">
-        <v>70.740740740740733</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="Z2" s="0">
-        <v>74.074074074074076</v>
+        <v>71.195652173913047</v>
       </c>
       <c r="AA2" s="0">
-        <v>73.703703703703709</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="AB2" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="AC2" s="0">
-        <v>75.925925925925924</v>
+        <v>73.369565217391312</v>
       </c>
       <c r="AD2" s="0">
-        <v>75.18518518518519</v>
+        <v>73.097826086956516</v>
       </c>
       <c r="AE2" s="0">
-        <v>75.925925925925924</v>
+        <v>73.097826086956516</v>
       </c>
       <c r="AF2" s="0">
-        <v>71.111111111111114</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="AG2" s="0">
-        <v>71.851851851851862</v>
+        <v>69.83695652173914</v>
       </c>
       <c r="AH2" s="0">
-        <v>72.592592592592595</v>
+        <v>70.923913043478265</v>
       </c>
       <c r="AI2" s="0">
-        <v>72.222222222222214</v>
+        <v>70.652173913043484</v>
       </c>
       <c r="AJ2" s="0">
-        <v>71.111111111111114</v>
+        <v>70.108695652173907</v>
       </c>
       <c r="AK2" s="0">
-        <v>75.555555555555557</v>
+        <v>71.195652173913047</v>
       </c>
       <c r="AL2" s="0">
-        <v>70</v>
+        <v>69.021739130434781</v>
       </c>
       <c r="AM2" s="0">
-        <v>70</v>
+        <v>69.021739130434781</v>
       </c>
       <c r="AN2" s="0">
-        <v>71.111111111111114</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="AO2" s="0">
-        <v>74.81481481481481</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="AP2" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="AQ2" s="0">
-        <v>75.555555555555557</v>
+        <v>72.282608695652172</v>
       </c>
       <c r="AR2" s="0">
-        <v>74.81481481481481</v>
+        <v>71.739130434782609</v>
       </c>
       <c r="AS2" s="0">
-        <v>72.592592592592595</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="AT2" s="0">
-        <v>73.333333333333329</v>
+        <v>70.380434782608688</v>
       </c>
       <c r="AU2" s="0">
-        <v>71.481481481481481</v>
+        <v>69.565217391304344</v>
       </c>
       <c r="AV2" s="0">
-        <v>74.81481481481481</v>
+        <v>70.380434782608688</v>
       </c>
       <c r="AW2" s="0">
-        <v>72.962962962962962</v>
+        <v>69.83695652173914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="B3" s="0">
-        <v>84.81481481481481</v>
+        <v>86.141304347826093</v>
       </c>
       <c r="C3" s="0">
-        <v>83.703703703703695</v>
+        <v>85.326086956521735</v>
       </c>
       <c r="D3" s="0">
-        <v>85.18518518518519</v>
+        <v>86.41304347826086</v>
       </c>
       <c r="E3" s="0">
-        <v>79.629629629629633</v>
+        <v>78.804347826086953</v>
       </c>
       <c r="F3" s="0">
-        <v>81.481481481481481</v>
+        <v>79.891304347826093</v>
       </c>
       <c r="G3" s="0">
-        <v>81.481481481481481</v>
+        <v>81.25</v>
       </c>
       <c r="H3" s="0">
-        <v>88.888888888888886</v>
+        <v>89.945652173913047</v>
       </c>
       <c r="I3" s="0">
-        <v>88.888888888888886</v>
+        <v>88.858695652173907</v>
       </c>
       <c r="J3" s="0">
-        <v>88.888888888888886</v>
+        <v>88.58695652173914</v>
       </c>
       <c r="K3" s="0">
-        <v>88.518518518518519</v>
+        <v>88.858695652173907</v>
       </c>
       <c r="L3" s="0">
-        <v>76.296296296296291</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="M3" s="0">
-        <v>83.333333333333343</v>
+        <v>80.706521739130437</v>
       </c>
       <c r="N3" s="0">
-        <v>88.518518518518519</v>
+        <v>87.228260869565219</v>
       </c>
       <c r="O3" s="0">
-        <v>87.407407407407405</v>
+        <v>86.41304347826086</v>
       </c>
       <c r="P3" s="0">
-        <v>88.148148148148152</v>
+        <v>86.956521739130437</v>
       </c>
       <c r="Q3" s="0">
-        <v>80</v>
+        <v>74.728260869565219</v>
       </c>
       <c r="R3" s="0">
-        <v>81.851851851851848</v>
+        <v>76.902173913043484</v>
       </c>
       <c r="S3" s="0">
-        <v>84.074074074074076</v>
+        <v>79.619565217391312</v>
       </c>
       <c r="T3" s="0">
-        <v>85.925925925925924</v>
+        <v>87.228260869565219</v>
       </c>
       <c r="U3" s="0">
-        <v>87.407407407407405</v>
+        <v>88.58695652173914</v>
       </c>
       <c r="V3" s="0">
-        <v>87.407407407407405</v>
+        <v>88.315217391304344</v>
       </c>
       <c r="W3" s="0">
-        <v>77.777777777777786</v>
+        <v>76.08695652173914</v>
       </c>
       <c r="X3" s="0">
-        <v>77.407407407407405</v>
+        <v>77.173913043478265</v>
       </c>
       <c r="Y3" s="0">
-        <v>76.296296296296291</v>
+        <v>75.815217391304344</v>
       </c>
       <c r="Z3" s="0">
-        <v>87.407407407407405</v>
+        <v>86.141304347826093</v>
       </c>
       <c r="AA3" s="0">
-        <v>84.444444444444443</v>
+        <v>83.967391304347828</v>
       </c>
       <c r="AB3" s="0">
-        <v>85.555555555555557</v>
+        <v>83.152173913043484</v>
       </c>
       <c r="AC3" s="0">
-        <v>83.333333333333343</v>
+        <v>82.608695652173907</v>
       </c>
       <c r="AD3" s="0">
-        <v>81.851851851851848</v>
+        <v>79.891304347826093</v>
       </c>
       <c r="AE3" s="0">
-        <v>83.703703703703695</v>
+        <v>83.152173913043484</v>
       </c>
       <c r="AF3" s="0">
-        <v>81.851851851851848</v>
+        <v>81.521739130434781</v>
       </c>
       <c r="AG3" s="0">
-        <v>82.962962962962962</v>
+        <v>83.423913043478265</v>
       </c>
       <c r="AH3" s="0">
-        <v>82.222222222222214</v>
+        <v>82.065217391304344</v>
       </c>
       <c r="AI3" s="0">
-        <v>80</v>
+        <v>80.706521739130437</v>
       </c>
       <c r="AJ3" s="0">
-        <v>80.370370370370367</v>
+        <v>81.25</v>
       </c>
       <c r="AK3" s="0">
-        <v>78.518518518518519</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="AL3" s="0">
-        <v>80.370370370370367</v>
+        <v>81.521739130434781</v>
       </c>
       <c r="AM3" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
       <c r="AN3" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
       <c r="AO3" s="0">
-        <v>85.925925925925924</v>
+        <v>83.967391304347828</v>
       </c>
       <c r="AP3" s="0">
-        <v>87.037037037037038</v>
+        <v>86.41304347826086</v>
       </c>
       <c r="AQ3" s="0">
-        <v>86.296296296296291</v>
+        <v>84.782608695652172</v>
       </c>
       <c r="AR3" s="0">
-        <v>85.555555555555557</v>
+        <v>85.054347826086953</v>
       </c>
       <c r="AS3" s="0">
-        <v>85.925925925925924</v>
+        <v>86.141304347826093</v>
       </c>
       <c r="AT3" s="0">
-        <v>85.555555555555557</v>
+        <v>85.869565217391312</v>
       </c>
       <c r="AU3" s="0">
-        <v>78.888888888888886</v>
+        <v>79.076086956521735</v>
       </c>
       <c r="AV3" s="0">
-        <v>79.629629629629633</v>
+        <v>75</v>
       </c>
       <c r="AW3" s="0">
-        <v>84.074074074074076</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="B4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>97.407407407407405</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>99.259259259259252</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>97.407407407407405</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>97.407407407407405</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>99.629629629629633</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
-        <v>97.777777777777771</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>98.148148148148152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3424,598 +3595,598 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="B6" s="0">
-        <v>85.533184190902318</v>
+        <v>86.227951153324284</v>
       </c>
       <c r="C6" s="0">
-        <v>84.041759880686044</v>
+        <v>84.396200814111268</v>
       </c>
       <c r="D6" s="0">
-        <v>84.116331096196873</v>
+        <v>84.871099050203526</v>
       </c>
       <c r="E6" s="0">
-        <v>89.709172259507824</v>
+        <v>83.175033921302571</v>
       </c>
       <c r="F6" s="0">
-        <v>87.24832214765101</v>
+        <v>87.449118046132966</v>
       </c>
       <c r="G6" s="0">
-        <v>89.709172259507824</v>
+        <v>89.620081411126179</v>
       </c>
       <c r="H6" s="0">
-        <v>87.994034302759133</v>
+        <v>87.788331071913163</v>
       </c>
       <c r="I6" s="0">
-        <v>87.322893363161825</v>
+        <v>87.856173677069208</v>
       </c>
       <c r="J6" s="0">
-        <v>87.994034302759133</v>
+        <v>87.924016282225239</v>
       </c>
       <c r="K6" s="0">
-        <v>87.844891871737502</v>
+        <v>87.924016282225239</v>
       </c>
       <c r="L6" s="0">
-        <v>89.858314690529454</v>
+        <v>89.552238805970148</v>
       </c>
       <c r="M6" s="0">
-        <v>89.410887397464577</v>
+        <v>89.687924016282224</v>
       </c>
       <c r="N6" s="0">
-        <v>87.695749440715886</v>
+        <v>88.059701492537314</v>
       </c>
       <c r="O6" s="0">
-        <v>87.770320656226701</v>
+        <v>88.12754409769336</v>
       </c>
       <c r="P6" s="0">
-        <v>87.770320656226701</v>
+        <v>88.059701492537314</v>
       </c>
       <c r="Q6" s="0">
-        <v>87.24832214765101</v>
+        <v>87.652645861601087</v>
       </c>
       <c r="R6" s="0">
-        <v>89.709172259507824</v>
+        <v>89.891451831750331</v>
       </c>
       <c r="S6" s="0">
-        <v>89.709172259507824</v>
+        <v>89.891451831750331</v>
       </c>
       <c r="T6" s="0">
-        <v>84.936614466815811</v>
+        <v>85.413839891451843</v>
       </c>
       <c r="U6" s="0">
-        <v>85.011185682326612</v>
+        <v>80.936227951153327</v>
       </c>
       <c r="V6" s="0">
-        <v>85.011185682326612</v>
+        <v>85.61736770691995</v>
       </c>
       <c r="W6" s="0">
-        <v>83.892617449664428</v>
+        <v>84.73541383989145</v>
       </c>
       <c r="X6" s="0">
-        <v>84.862043251304996</v>
+        <v>85.278154681139753</v>
       </c>
       <c r="Y6" s="0">
-        <v>84.56375838926175</v>
+        <v>84.803256445047495</v>
       </c>
       <c r="Z6" s="0">
-        <v>87.24832214765101</v>
+        <v>87.584803256445042</v>
       </c>
       <c r="AA6" s="0">
-        <v>86.950037285607749</v>
+        <v>87.652645861601087</v>
       </c>
       <c r="AB6" s="0">
-        <v>87.24832214765101</v>
+        <v>87.788331071913163</v>
       </c>
       <c r="AC6" s="0">
-        <v>87.994034302759133</v>
+        <v>88.534599728629587</v>
       </c>
       <c r="AD6" s="0">
-        <v>87.994034302759133</v>
+        <v>88.602442333785618</v>
       </c>
       <c r="AE6" s="0">
-        <v>88.217747949291564</v>
+        <v>88.805970149253739</v>
       </c>
       <c r="AF6" s="0">
-        <v>85.234899328859058</v>
+        <v>81.682496607869737</v>
       </c>
       <c r="AG6" s="0">
-        <v>85.234899328859058</v>
+        <v>85.549525101763919</v>
       </c>
       <c r="AH6" s="0">
-        <v>85.160328113348243</v>
+        <v>85.753052917232026</v>
       </c>
       <c r="AI6" s="0">
-        <v>82.401193139448168</v>
+        <v>83.175033921302571</v>
       </c>
       <c r="AJ6" s="0">
-        <v>82.326621923937353</v>
+        <v>83.175033921302571</v>
       </c>
       <c r="AK6" s="0">
-        <v>85.533184190902318</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="AL6" s="0">
-        <v>82.177479492915737</v>
+        <v>83.039348710990495</v>
       </c>
       <c r="AM6" s="0">
-        <v>82.252050708426552</v>
+        <v>83.10719131614654</v>
       </c>
       <c r="AN6" s="0">
-        <v>84.340044742729305</v>
+        <v>85.006784260515602</v>
       </c>
       <c r="AO6" s="0">
-        <v>86.950037285607749</v>
+        <v>87.584803256445042</v>
       </c>
       <c r="AP6" s="0">
-        <v>86.502609992542872</v>
+        <v>87.042062415196739</v>
       </c>
       <c r="AQ6" s="0">
-        <v>86.800894854586133</v>
+        <v>87.24559023066486</v>
       </c>
       <c r="AR6" s="0">
-        <v>86.800894854586133</v>
+        <v>86.770691994572587</v>
       </c>
       <c r="AS6" s="0">
-        <v>85.980611483967181</v>
+        <v>86.499321573948436</v>
       </c>
       <c r="AT6" s="0">
-        <v>86.577181208053688</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="AU6" s="0">
-        <v>86.428038777032071</v>
+        <v>86.635006784260511</v>
       </c>
       <c r="AV6" s="0">
-        <v>82.401193139448168</v>
+        <v>83.310719131614647</v>
       </c>
       <c r="AW6" s="0">
-        <v>89.112602535421331</v>
+        <v>86.770691994572587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="B7" s="0">
-        <v>87.39746457867264</v>
+        <v>57.869742198100404</v>
       </c>
       <c r="C7" s="0">
-        <v>87.695749440715886</v>
+        <v>58.208955223880601</v>
       </c>
       <c r="D7" s="0">
-        <v>88.441461595824009</v>
+        <v>58.412483039348707</v>
       </c>
       <c r="E7" s="0">
-        <v>91.349739000745714</v>
+        <v>57.394843962008146</v>
       </c>
       <c r="F7" s="0">
-        <v>91.648023862788961</v>
+        <v>60.651289009497965</v>
       </c>
       <c r="G7" s="0">
-        <v>91.648023862788961</v>
+        <v>60.651289009497965</v>
       </c>
       <c r="H7" s="0">
-        <v>78.374347501864278</v>
+        <v>55.223880597014926</v>
       </c>
       <c r="I7" s="0">
-        <v>80.536912751677846</v>
+        <v>56.580732700135684</v>
       </c>
       <c r="J7" s="0">
-        <v>80.686055182699477</v>
+        <v>57.055630936227949</v>
       </c>
       <c r="K7" s="0">
-        <v>78.523489932885909</v>
+        <v>55.970149253731336</v>
       </c>
       <c r="L7" s="0">
-        <v>81.282624906785983</v>
+        <v>56.919945725915881</v>
       </c>
       <c r="M7" s="0">
-        <v>84.041759880686044</v>
+        <v>56.309362279511532</v>
       </c>
       <c r="N7" s="0">
-        <v>79.791200596569723</v>
+        <v>53.79918588873813</v>
       </c>
       <c r="O7" s="0">
-        <v>79.716629381058908</v>
+        <v>53.188602442333789</v>
       </c>
       <c r="P7" s="0">
-        <v>82.102908277404921</v>
+        <v>54.613297150610585</v>
       </c>
       <c r="Q7" s="0">
-        <v>81.058911260253538</v>
+        <v>55.156037991858888</v>
       </c>
       <c r="R7" s="0">
-        <v>83.743475018642798</v>
+        <v>57.191316146540025</v>
       </c>
       <c r="S7" s="0">
-        <v>87.322893363161825</v>
+        <v>57.055630936227949</v>
       </c>
       <c r="T7" s="0">
-        <v>88.73974645786727</v>
+        <v>58.887381275440973</v>
       </c>
       <c r="U7" s="0">
-        <v>89.112602535421331</v>
+        <v>59.905020352781548</v>
       </c>
       <c r="V7" s="0">
-        <v>88.814317673378071</v>
+        <v>60.040705563093624</v>
       </c>
       <c r="W7" s="0">
-        <v>87.173750932140194</v>
+        <v>59.362279511533245</v>
       </c>
       <c r="X7" s="0">
-        <v>90.007457121551084</v>
+        <v>60.447761194029844</v>
       </c>
       <c r="Y7" s="0">
-        <v>89.932885906040269</v>
+        <v>60.719131614653996</v>
       </c>
       <c r="Z7" s="0">
-        <v>84.41461595824012</v>
+        <v>59.633649932157397</v>
       </c>
       <c r="AA7" s="0">
-        <v>84.190902311707688</v>
+        <v>57.191316146540025</v>
       </c>
       <c r="AB7" s="0">
-        <v>84.489187173750935</v>
+        <v>58.00542740841248</v>
       </c>
       <c r="AC7" s="0">
-        <v>82.102908277404921</v>
+        <v>53.45997286295794</v>
       </c>
       <c r="AD7" s="0">
-        <v>81.282624906785983</v>
+        <v>53.324287652645864</v>
       </c>
       <c r="AE7" s="0">
-        <v>82.177479492915737</v>
+        <v>51.017639077340569</v>
       </c>
       <c r="AF7" s="0">
-        <v>88.292319164802393</v>
+        <v>62.550881953867034</v>
       </c>
       <c r="AG7" s="0">
-        <v>94.034302759134974</v>
+        <v>60.854816824966072</v>
       </c>
       <c r="AH7" s="0">
-        <v>91.648023862788961</v>
+        <v>60.854816824966072</v>
       </c>
       <c r="AI7" s="0">
-        <v>86.577181208053688</v>
+        <v>59.497964721845321</v>
       </c>
       <c r="AJ7" s="0">
-        <v>93.586875466070097</v>
+        <v>60.58344640434192</v>
       </c>
       <c r="AK7" s="0">
-        <v>83.22147651006712</v>
+        <v>52.51017639077341</v>
       </c>
       <c r="AL7" s="0">
-        <v>90.23117076808353</v>
+        <v>61.668928086838534</v>
       </c>
       <c r="AM7" s="0">
-        <v>86.204325130499626</v>
+        <v>58.412483039348707</v>
       </c>
       <c r="AN7" s="0">
-        <v>87.099179716629379</v>
+        <v>58.208955223880601</v>
       </c>
       <c r="AO7" s="0">
-        <v>81.208053691275168</v>
+        <v>57.327001356852101</v>
       </c>
       <c r="AP7" s="0">
-        <v>81.357196122296799</v>
+        <v>53.663500678426054</v>
       </c>
       <c r="AQ7" s="0">
-        <v>79.716629381058908</v>
+        <v>54.274084124830388</v>
       </c>
       <c r="AR7" s="0">
-        <v>80.462341536167031</v>
+        <v>54.816824966078691</v>
       </c>
       <c r="AS7" s="0">
-        <v>84.787472035794181</v>
+        <v>56.784260515603805</v>
       </c>
       <c r="AT7" s="0">
-        <v>84.041759880686044</v>
+        <v>56.648575305291729</v>
       </c>
       <c r="AU7" s="0">
-        <v>81.133482475764353</v>
+        <v>55.495251017639077</v>
       </c>
       <c r="AV7" s="0">
-        <v>81.133482475764353</v>
+        <v>53.120759837177744</v>
       </c>
       <c r="AW7" s="0">
-        <v>81.357196122296799</v>
+        <v>56.71641791044776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="B8" s="0">
-        <v>97.16629381058911</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>99.030574198359432</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>96.942580164056665</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>99.328859060402692</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>99.328859060402692</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>99.254287844891877</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>98.434004474272925</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>96.196868008948542</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>97.390007457121555</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>97.464578672632356</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>96.644295302013433</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>97.31543624161074</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>99.105145413870247</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>97.613721103654001</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>99.105145413870247</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>98.434004474272925</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>98.359433258762124</v>
+        <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>99.030574198359432</v>
+        <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>98.65771812080537</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>98.65771812080537</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>98.359433258762124</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>97.986577181208062</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>99.328859060402692</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>98.881431767337816</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>98.806860551826986</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>99.030574198359432</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>99.105145413870247</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>99.328859060402692</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>98.434004474272925</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0">
-        <v>98.359433258762124</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>98.210290827740494</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>98.434004474272925</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>98.583146905294555</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>98.65771812080537</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>98.881431767337816</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>99.254287844891877</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>99.105145413870247</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>99.030574198359432</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>98.806860551826986</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>98.956002982848617</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="0">
-        <v>98.434004474272925</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>96.718866517524233</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>99.179716629381048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="B9" s="0">
-        <v>93.139448173005221</v>
+        <v>90.7055630936228</v>
       </c>
       <c r="C9" s="0">
-        <v>92.244593586875467</v>
+        <v>90.841248303934876</v>
       </c>
       <c r="D9" s="0">
-        <v>93.437733035048481</v>
+        <v>91.044776119402982</v>
       </c>
       <c r="E9" s="0">
-        <v>89.560029828486208</v>
+        <v>89.213025780189952</v>
       </c>
       <c r="F9" s="0">
-        <v>89.261744966442961</v>
+        <v>88.738127544097694</v>
       </c>
       <c r="G9" s="0">
-        <v>88.73974645786727</v>
+        <v>89.009497964721845</v>
       </c>
       <c r="H9" s="0">
-        <v>84.41461595824012</v>
+        <v>81.614654002713706</v>
       </c>
       <c r="I9" s="0">
-        <v>84.787472035794181</v>
+        <v>83.514246947082768</v>
       </c>
       <c r="J9" s="0">
-        <v>82.028337061894106</v>
+        <v>78.697421981004069</v>
       </c>
       <c r="K9" s="0">
-        <v>84.116331096196873</v>
+        <v>80.800542740841252</v>
       </c>
       <c r="L9" s="0">
-        <v>76.510067114093957</v>
+        <v>75.373134328358205</v>
       </c>
       <c r="M9" s="0">
-        <v>80.164056674123785</v>
+        <v>80.732700135685207</v>
       </c>
       <c r="N9" s="0">
-        <v>83.22147651006712</v>
+        <v>80.5291723202171</v>
       </c>
       <c r="O9" s="0">
-        <v>81.87919463087249</v>
+        <v>79.850746268656707</v>
       </c>
       <c r="P9" s="0">
-        <v>82.401193139448168</v>
+        <v>80.461329715061055</v>
       </c>
       <c r="Q9" s="0">
-        <v>92.393736017897083</v>
+        <v>91.723202170963376</v>
       </c>
       <c r="R9" s="0">
-        <v>95.227442207307973</v>
+        <v>92.198100407055634</v>
       </c>
       <c r="S9" s="0">
-        <v>97.017151379567494</v>
+        <v>95.793758480325636</v>
       </c>
       <c r="T9" s="0">
-        <v>91.946308724832221</v>
+        <v>86.092265943012208</v>
       </c>
       <c r="U9" s="0">
-        <v>92.393736017897083</v>
+        <v>87.652645861601087</v>
       </c>
       <c r="V9" s="0">
-        <v>92.915734526472775</v>
+        <v>87.381275440976935</v>
       </c>
       <c r="W9" s="0">
-        <v>90.902311707680838</v>
+        <v>87.381275440976935</v>
       </c>
       <c r="X9" s="0">
-        <v>90.23117076808353</v>
+        <v>86.295793758480315</v>
       </c>
       <c r="Y9" s="0">
-        <v>90.082028337061899</v>
+        <v>86.431478968792391</v>
       </c>
       <c r="Z9" s="0">
-        <v>85.90604026845638</v>
+        <v>80.800542740841252</v>
       </c>
       <c r="AA9" s="0">
-        <v>82.997762863534675</v>
+        <v>80.868385345997282</v>
       </c>
       <c r="AB9" s="0">
-        <v>86.278896346010441</v>
+        <v>85.549525101763919</v>
       </c>
       <c r="AC9" s="0">
-        <v>84.712900820283366</v>
+        <v>82.15739484396201</v>
       </c>
       <c r="AD9" s="0">
-        <v>77.926920208799402</v>
+        <v>83.039348710990495</v>
       </c>
       <c r="AE9" s="0">
-        <v>93.363161819537652</v>
+        <v>82.496607869742206</v>
       </c>
       <c r="AF9" s="0">
-        <v>95.973154362416096</v>
+        <v>86.838534599728632</v>
       </c>
       <c r="AG9" s="0">
-        <v>93.214019388516036</v>
+        <v>86.974219810040708</v>
       </c>
       <c r="AH9" s="0">
-        <v>96.346010439970172</v>
+        <v>90.773405698778831</v>
       </c>
       <c r="AI9" s="0">
-        <v>95.600298284862035</v>
+        <v>83.514246947082768</v>
       </c>
       <c r="AJ9" s="0">
-        <v>92.244593586875467</v>
+        <v>82.767978290366358</v>
       </c>
       <c r="AK9" s="0">
-        <v>94.034302759134974</v>
+        <v>83.039348710990495</v>
       </c>
       <c r="AL9" s="0">
-        <v>87.39746457867264</v>
+        <v>80.122116689280858</v>
       </c>
       <c r="AM9" s="0">
-        <v>90.529455630126776</v>
+        <v>86.567164179104466</v>
       </c>
       <c r="AN9" s="0">
-        <v>87.173750932140194</v>
+        <v>86.227951153324284</v>
       </c>
       <c r="AO9" s="0">
-        <v>83.296047725577921</v>
+        <v>81.004070556309358</v>
       </c>
       <c r="AP9" s="0">
-        <v>85.384041759880688</v>
+        <v>83.039348710990495</v>
       </c>
       <c r="AQ9" s="0">
-        <v>85.607755406413119</v>
+        <v>84.73541383989145</v>
       </c>
       <c r="AR9" s="0">
-        <v>81.058911260253538</v>
+        <v>78.629579375848039</v>
       </c>
       <c r="AS9" s="0">
-        <v>89.336316181953762</v>
+        <v>86.499321573948436</v>
       </c>
       <c r="AT9" s="0">
-        <v>83.892617449664428</v>
+        <v>86.838534599728632</v>
       </c>
       <c r="AU9" s="0">
-        <v>90.007457121551084</v>
+        <v>79.375848032564448</v>
       </c>
       <c r="AV9" s="0">
-        <v>82.699478001491428</v>
+        <v>81.682496607869737</v>
       </c>
       <c r="AW9" s="0">
-        <v>89.858314690529454</v>
+        <v>89.416553595658073</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/transposed_results_table.xlsx
+++ b/Thresholding/Results/transposed_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="969">
   <si>
     <t>Row</t>
   </si>
@@ -2431,6 +2431,177 @@
   </si>
   <si>
     <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_SD</t>
+  </si>
+  <si>
+    <t>BJ_Y1</t>
+  </si>
+  <si>
+    <t>BJ_Y2</t>
+  </si>
+  <si>
+    <t>BJ_Y3</t>
+  </si>
+  <si>
+    <t>BJ_OLD_1</t>
+  </si>
+  <si>
+    <t>BJ_OLD_2</t>
+  </si>
+  <si>
+    <t>BJ_OLD_3</t>
+  </si>
+  <si>
+    <t>IMR90_Y1</t>
+  </si>
+  <si>
+    <t>IMR90_Y2</t>
+  </si>
+  <si>
+    <t>IMR90_Y3</t>
+  </si>
+  <si>
+    <t>IMR90_O1</t>
+  </si>
+  <si>
+    <t>IMR90_O2</t>
+  </si>
+  <si>
+    <t>IMR90_O3</t>
+  </si>
+  <si>
+    <t>WI_38_Y1</t>
+  </si>
+  <si>
+    <t>WI_38_Y2</t>
+  </si>
+  <si>
+    <t>WI_38_Y3</t>
+  </si>
+  <si>
+    <t>WI_38_O1</t>
+  </si>
+  <si>
+    <t>WI_38_O2</t>
+  </si>
+  <si>
+    <t>WI_38_O3</t>
+  </si>
+  <si>
+    <t>HFF_PD16_1</t>
+  </si>
+  <si>
+    <t>HFF_PD16_2</t>
+  </si>
+  <si>
+    <t>HFF_PD16_3</t>
+  </si>
+  <si>
+    <t>HFF_PD74_1</t>
+  </si>
+  <si>
+    <t>HFF_PD74_2</t>
+  </si>
+  <si>
+    <t>HFF_PD74_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD32_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD72_3</t>
+  </si>
+  <si>
+    <t>HFF_PD26_1</t>
+  </si>
+  <si>
+    <t>HFF_PD26_2</t>
+  </si>
+  <si>
+    <t>HFF_PD26_3</t>
+  </si>
+  <si>
+    <t>HFF_PD46_1</t>
+  </si>
+  <si>
+    <t>HFF_PD46_2</t>
+  </si>
+  <si>
+    <t>HFF_PD46_3</t>
+  </si>
+  <si>
+    <t>HFF_PD64_1</t>
+  </si>
+  <si>
+    <t>HFF_PD64_2</t>
+  </si>
+  <si>
+    <t>HFF_PD64_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD42_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD52_3</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_1</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_2</t>
+  </si>
+  <si>
+    <t>MRC_5_PD62_3</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>HK_G_acc_SD</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>Var7</t>
   </si>
   <si>
     <t>HK_R_acc_SD</t>
@@ -2850,454 +3021,454 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>864</v>
+        <v>921</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>865</v>
+        <v>922</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>867</v>
+        <v>924</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>868</v>
+        <v>925</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>869</v>
+        <v>926</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>870</v>
+        <v>927</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>871</v>
+        <v>928</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>872</v>
+        <v>929</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>873</v>
+        <v>930</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>874</v>
+        <v>931</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>875</v>
+        <v>932</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>876</v>
+        <v>933</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>877</v>
+        <v>934</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>878</v>
+        <v>935</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>879</v>
+        <v>936</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>880</v>
+        <v>937</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>881</v>
+        <v>938</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>882</v>
+        <v>939</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>883</v>
+        <v>940</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>884</v>
+        <v>941</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>885</v>
+        <v>942</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>886</v>
+        <v>943</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>887</v>
+        <v>944</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>888</v>
+        <v>945</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>889</v>
+        <v>946</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>890</v>
+        <v>947</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>891</v>
+        <v>948</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>892</v>
+        <v>949</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>893</v>
+        <v>950</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>894</v>
+        <v>951</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>895</v>
+        <v>952</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>896</v>
+        <v>953</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>897</v>
+        <v>954</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>899</v>
+        <v>956</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>900</v>
+        <v>957</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>901</v>
+        <v>958</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>902</v>
+        <v>959</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>903</v>
+        <v>960</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>904</v>
+        <v>961</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>905</v>
+        <v>962</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>906</v>
+        <v>963</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>907</v>
+        <v>964</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>908</v>
+        <v>965</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>909</v>
+        <v>966</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>910</v>
+        <v>967</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>911</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="B2" s="0">
-        <v>70.652173913043484</v>
+        <v>50.070323488045013</v>
       </c>
       <c r="C2" s="0">
-        <v>70.380434782608688</v>
+        <v>49.929676511954995</v>
       </c>
       <c r="D2" s="0">
-        <v>70.380434782608688</v>
+        <v>50.210970464135016</v>
       </c>
       <c r="E2" s="0">
-        <v>70.108695652173907</v>
+        <v>49.507735583684955</v>
       </c>
       <c r="F2" s="0">
-        <v>69.83695652173914</v>
+        <v>49.507735583684955</v>
       </c>
       <c r="G2" s="0">
-        <v>70.108695652173907</v>
+        <v>49.367088607594937</v>
       </c>
       <c r="H2" s="0">
-        <v>71.739130434782609</v>
+        <v>51.61744022503516</v>
       </c>
       <c r="I2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.336146272855132</v>
       </c>
       <c r="J2" s="0">
-        <v>72.554347826086953</v>
+        <v>51.61744022503516</v>
       </c>
       <c r="K2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.898734177215189</v>
       </c>
       <c r="L2" s="0">
-        <v>70.652173913043484</v>
+        <v>50.351617440225041</v>
       </c>
       <c r="M2" s="0">
-        <v>71.739130434782609</v>
+        <v>50.914205344585092</v>
       </c>
       <c r="N2" s="0">
-        <v>72.554347826086953</v>
+        <v>51.758087201125178</v>
       </c>
       <c r="O2" s="0">
-        <v>72.554347826086953</v>
+        <v>51.61744022503516</v>
       </c>
       <c r="P2" s="0">
-        <v>72.554347826086953</v>
+        <v>52.180028129395218</v>
       </c>
       <c r="Q2" s="0">
-        <v>71.467391304347828</v>
+        <v>50.492264416315045</v>
       </c>
       <c r="R2" s="0">
-        <v>71.739130434782609</v>
+        <v>50.773558368495074</v>
       </c>
       <c r="S2" s="0">
-        <v>71.739130434782609</v>
+        <v>49.929676511954995</v>
       </c>
       <c r="T2" s="0">
-        <v>71.739130434782609</v>
+        <v>50.632911392405063</v>
       </c>
       <c r="U2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.054852320675103</v>
       </c>
       <c r="V2" s="0">
-        <v>72.554347826086953</v>
+        <v>50.914205344585092</v>
       </c>
       <c r="W2" s="0">
-        <v>69.021739130434781</v>
+        <v>48.804500703234879</v>
       </c>
       <c r="X2" s="0">
-        <v>70.380434782608688</v>
+        <v>48.38255977496484</v>
       </c>
       <c r="Y2" s="0">
-        <v>69.565217391304344</v>
+        <v>48.52320675105485</v>
       </c>
       <c r="Z2" s="0">
-        <v>71.195652173913047</v>
+        <v>50.632911392405063</v>
       </c>
       <c r="AA2" s="0">
-        <v>71.739130434782609</v>
+        <v>50.914205344585092</v>
       </c>
       <c r="AB2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.195499296765121</v>
       </c>
       <c r="AC2" s="0">
-        <v>73.369565217391312</v>
+        <v>52.180028129395218</v>
       </c>
       <c r="AD2" s="0">
-        <v>73.097826086956516</v>
+        <v>51.47679324894515</v>
       </c>
       <c r="AE2" s="0">
-        <v>73.097826086956516</v>
+        <v>51.758087201125178</v>
       </c>
       <c r="AF2" s="0">
-        <v>69.565217391304344</v>
+        <v>48.945147679324897</v>
       </c>
       <c r="AG2" s="0">
-        <v>69.83695652173914</v>
+        <v>49.367088607594937</v>
       </c>
       <c r="AH2" s="0">
-        <v>70.923913043478265</v>
+        <v>49.789029535864984</v>
       </c>
       <c r="AI2" s="0">
-        <v>70.652173913043484</v>
+        <v>50.632911392405063</v>
       </c>
       <c r="AJ2" s="0">
-        <v>70.108695652173907</v>
+        <v>50.070323488045013</v>
       </c>
       <c r="AK2" s="0">
-        <v>71.195652173913047</v>
+        <v>53.586497890295362</v>
       </c>
       <c r="AL2" s="0">
-        <v>69.021739130434781</v>
+        <v>48.945147679324897</v>
       </c>
       <c r="AM2" s="0">
-        <v>69.021739130434781</v>
+        <v>49.929676511954995</v>
       </c>
       <c r="AN2" s="0">
-        <v>69.565217391304344</v>
+        <v>49.929676511954995</v>
       </c>
       <c r="AO2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.47679324894515</v>
       </c>
       <c r="AP2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.61744022503516</v>
       </c>
       <c r="AQ2" s="0">
-        <v>72.282608695652172</v>
+        <v>51.758087201125178</v>
       </c>
       <c r="AR2" s="0">
-        <v>71.739130434782609</v>
+        <v>51.61744022503516</v>
       </c>
       <c r="AS2" s="0">
-        <v>69.565217391304344</v>
+        <v>50.351617440225041</v>
       </c>
       <c r="AT2" s="0">
-        <v>70.380434782608688</v>
+        <v>50.351617440225041</v>
       </c>
       <c r="AU2" s="0">
-        <v>69.565217391304344</v>
+        <v>49.226441631504926</v>
       </c>
       <c r="AV2" s="0">
-        <v>70.380434782608688</v>
+        <v>51.898734177215189</v>
       </c>
       <c r="AW2" s="0">
-        <v>69.83695652173914</v>
+        <v>50.632911392405063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="B3" s="0">
-        <v>86.141304347826093</v>
+        <v>75.246132208157519</v>
       </c>
       <c r="C3" s="0">
-        <v>85.326086956521735</v>
+        <v>74.542897327707465</v>
       </c>
       <c r="D3" s="0">
-        <v>86.41304347826086</v>
+        <v>77.215189873417728</v>
       </c>
       <c r="E3" s="0">
-        <v>78.804347826086953</v>
+        <v>67.510548523206751</v>
       </c>
       <c r="F3" s="0">
-        <v>79.891304347826093</v>
+        <v>70.745428973277072</v>
       </c>
       <c r="G3" s="0">
-        <v>81.25</v>
+        <v>71.589310829817151</v>
       </c>
       <c r="H3" s="0">
-        <v>89.945652173913047</v>
+        <v>82.278481012658233</v>
       </c>
       <c r="I3" s="0">
-        <v>88.858695652173907</v>
+        <v>82.278481012658233</v>
       </c>
       <c r="J3" s="0">
-        <v>88.58695652173914</v>
+        <v>81.57524613220815</v>
       </c>
       <c r="K3" s="0">
-        <v>88.858695652173907</v>
+        <v>82.137834036568208</v>
       </c>
       <c r="L3" s="0">
-        <v>73.91304347826086</v>
+        <v>65.682137834036567</v>
       </c>
       <c r="M3" s="0">
-        <v>80.706521739130437</v>
+        <v>70.182841068917028</v>
       </c>
       <c r="N3" s="0">
-        <v>87.228260869565219</v>
+        <v>76.933895921237692</v>
       </c>
       <c r="O3" s="0">
-        <v>86.41304347826086</v>
+        <v>76.793248945147667</v>
       </c>
       <c r="P3" s="0">
-        <v>86.956521739130437</v>
+        <v>77.637130801687761</v>
       </c>
       <c r="Q3" s="0">
-        <v>74.728260869565219</v>
+        <v>60.900140646976084</v>
       </c>
       <c r="R3" s="0">
-        <v>76.902173913043484</v>
+        <v>65.119549929676509</v>
       </c>
       <c r="S3" s="0">
-        <v>79.619565217391312</v>
+        <v>67.791842475386773</v>
       </c>
       <c r="T3" s="0">
-        <v>87.228260869565219</v>
+        <v>79.043600562587898</v>
       </c>
       <c r="U3" s="0">
-        <v>88.58695652173914</v>
+        <v>80.450070323488049</v>
       </c>
       <c r="V3" s="0">
-        <v>88.315217391304344</v>
+        <v>79.324894514767934</v>
       </c>
       <c r="W3" s="0">
-        <v>76.08695652173914</v>
+        <v>64.697609001406477</v>
       </c>
       <c r="X3" s="0">
-        <v>77.173913043478265</v>
+        <v>63.009845288326304</v>
       </c>
       <c r="Y3" s="0">
-        <v>75.815217391304344</v>
+        <v>61.74402250351617</v>
       </c>
       <c r="Z3" s="0">
-        <v>86.141304347826093</v>
+        <v>75.386779184247544</v>
       </c>
       <c r="AA3" s="0">
-        <v>83.967391304347828</v>
+        <v>72.292545710267234</v>
       </c>
       <c r="AB3" s="0">
-        <v>83.152173913043484</v>
+        <v>73.55836849507736</v>
       </c>
       <c r="AC3" s="0">
-        <v>82.608695652173907</v>
+        <v>72.855133614627292</v>
       </c>
       <c r="AD3" s="0">
-        <v>79.891304347826093</v>
+        <v>69.338959212376935</v>
       </c>
       <c r="AE3" s="0">
-        <v>83.152173913043484</v>
+        <v>72.433192686357245</v>
       </c>
       <c r="AF3" s="0">
-        <v>81.521739130434781</v>
+        <v>75.246132208157519</v>
       </c>
       <c r="AG3" s="0">
-        <v>83.423913043478265</v>
+        <v>75.949367088607602</v>
       </c>
       <c r="AH3" s="0">
-        <v>82.065217391304344</v>
+        <v>75.949367088607602</v>
       </c>
       <c r="AI3" s="0">
-        <v>80.706521739130437</v>
+        <v>69.057665260196913</v>
       </c>
       <c r="AJ3" s="0">
-        <v>81.25</v>
+        <v>70.604781997187061</v>
       </c>
       <c r="AK3" s="0">
-        <v>73.91304347826086</v>
+        <v>59.634317862165965</v>
       </c>
       <c r="AL3" s="0">
-        <v>81.521739130434781</v>
+        <v>71.167369901547119</v>
       </c>
       <c r="AM3" s="0">
-        <v>79.076086956521735</v>
+        <v>67.510548523206751</v>
       </c>
       <c r="AN3" s="0">
-        <v>79.076086956521735</v>
+        <v>67.932489451476798</v>
       </c>
       <c r="AO3" s="0">
-        <v>83.967391304347828</v>
+        <v>73.277074542897324</v>
       </c>
       <c r="AP3" s="0">
-        <v>86.41304347826086</v>
+        <v>77.355836849507725</v>
       </c>
       <c r="AQ3" s="0">
-        <v>84.782608695652172</v>
+        <v>75.808720112517577</v>
       </c>
       <c r="AR3" s="0">
-        <v>85.054347826086953</v>
+        <v>75.386779184247544</v>
       </c>
       <c r="AS3" s="0">
-        <v>86.141304347826093</v>
+        <v>77.49648382559775</v>
       </c>
       <c r="AT3" s="0">
-        <v>85.869565217391312</v>
+        <v>76.65260196905767</v>
       </c>
       <c r="AU3" s="0">
-        <v>79.076086956521735</v>
+        <v>67.36990154711674</v>
       </c>
       <c r="AV3" s="0">
-        <v>75</v>
+        <v>64.838255977496488</v>
       </c>
       <c r="AW3" s="0">
-        <v>82.608695652173907</v>
+        <v>72.714486638537267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -3446,7 +3617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3595,305 +3766,305 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
       <c r="B6" s="0">
-        <v>86.227951153324284</v>
+        <v>73.992673992674</v>
       </c>
       <c r="C6" s="0">
-        <v>84.396200814111268</v>
+        <v>73.504273504273513</v>
       </c>
       <c r="D6" s="0">
-        <v>84.871099050203526</v>
+        <v>73.544973544973544</v>
       </c>
       <c r="E6" s="0">
-        <v>83.175033921302571</v>
+        <v>69.108669108669105</v>
       </c>
       <c r="F6" s="0">
-        <v>87.449118046132966</v>
+        <v>71.794871794871796</v>
       </c>
       <c r="G6" s="0">
-        <v>89.620081411126179</v>
+        <v>73.056573056573058</v>
       </c>
       <c r="H6" s="0">
-        <v>87.788331071913163</v>
+        <v>73.748473748473756</v>
       </c>
       <c r="I6" s="0">
-        <v>87.856173677069208</v>
+        <v>74.277574277574274</v>
       </c>
       <c r="J6" s="0">
-        <v>87.924016282225239</v>
+        <v>73.341473341473346</v>
       </c>
       <c r="K6" s="0">
-        <v>87.924016282225239</v>
+        <v>73.015873015873012</v>
       </c>
       <c r="L6" s="0">
-        <v>89.552238805970148</v>
+        <v>74.155474155474153</v>
       </c>
       <c r="M6" s="0">
-        <v>89.687924016282224</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="N6" s="0">
-        <v>88.059701492537314</v>
+        <v>72.730972730972738</v>
       </c>
       <c r="O6" s="0">
-        <v>88.12754409769336</v>
+        <v>73.504273504273513</v>
       </c>
       <c r="P6" s="0">
-        <v>88.059701492537314</v>
+        <v>72.771672771672769</v>
       </c>
       <c r="Q6" s="0">
-        <v>87.652645861601087</v>
+        <v>75.091575091575095</v>
       </c>
       <c r="R6" s="0">
-        <v>89.891451831750331</v>
+        <v>76.353276353276357</v>
       </c>
       <c r="S6" s="0">
-        <v>89.891451831750331</v>
+        <v>76.109076109076113</v>
       </c>
       <c r="T6" s="0">
-        <v>85.413839891451843</v>
+        <v>75.213675213675216</v>
       </c>
       <c r="U6" s="0">
-        <v>80.936227951153327</v>
+        <v>72.527472527472526</v>
       </c>
       <c r="V6" s="0">
-        <v>85.61736770691995</v>
+        <v>75.295075295075293</v>
       </c>
       <c r="W6" s="0">
-        <v>84.73541383989145</v>
+        <v>75.986975986975992</v>
       </c>
       <c r="X6" s="0">
-        <v>85.278154681139753</v>
+        <v>75.661375661375658</v>
       </c>
       <c r="Y6" s="0">
-        <v>84.803256445047495</v>
+        <v>75.905575905575901</v>
       </c>
       <c r="Z6" s="0">
-        <v>87.584803256445042</v>
+        <v>73.789173789173788</v>
       </c>
       <c r="AA6" s="0">
-        <v>87.652645861601087</v>
+        <v>73.789173789173788</v>
       </c>
       <c r="AB6" s="0">
-        <v>87.788331071913163</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="AC6" s="0">
-        <v>88.534599728629587</v>
+        <v>80.179080179080174</v>
       </c>
       <c r="AD6" s="0">
-        <v>88.602442333785618</v>
+        <v>79.527879527879534</v>
       </c>
       <c r="AE6" s="0">
-        <v>88.805970149253739</v>
+        <v>77.574277574277573</v>
       </c>
       <c r="AF6" s="0">
-        <v>81.682496607869737</v>
+        <v>71.550671550671552</v>
       </c>
       <c r="AG6" s="0">
-        <v>85.549525101763919</v>
+        <v>74.033374033374031</v>
       </c>
       <c r="AH6" s="0">
-        <v>85.753052917232026</v>
+        <v>74.033374033374031</v>
       </c>
       <c r="AI6" s="0">
-        <v>83.175033921302571</v>
+        <v>75.539275539275536</v>
       </c>
       <c r="AJ6" s="0">
-        <v>83.175033921302571</v>
+        <v>75.661375661375658</v>
       </c>
       <c r="AK6" s="0">
-        <v>86.36363636363636</v>
+        <v>79.242979242979246</v>
       </c>
       <c r="AL6" s="0">
-        <v>83.039348710990495</v>
+        <v>75.579975579975581</v>
       </c>
       <c r="AM6" s="0">
-        <v>83.10719131614654</v>
+        <v>75.45787545787546</v>
       </c>
       <c r="AN6" s="0">
-        <v>85.006784260515602</v>
+        <v>76.271876271876266</v>
       </c>
       <c r="AO6" s="0">
-        <v>87.584803256445042</v>
+        <v>74.643874643874639</v>
       </c>
       <c r="AP6" s="0">
-        <v>87.042062415196739</v>
+        <v>74.358974358974365</v>
       </c>
       <c r="AQ6" s="0">
-        <v>87.24559023066486</v>
+        <v>74.765974765974761</v>
       </c>
       <c r="AR6" s="0">
-        <v>86.770691994572587</v>
+        <v>73.951973951973955</v>
       </c>
       <c r="AS6" s="0">
-        <v>86.499321573948436</v>
+        <v>74.236874236874243</v>
       </c>
       <c r="AT6" s="0">
-        <v>86.36363636363636</v>
+        <v>73.300773300773301</v>
       </c>
       <c r="AU6" s="0">
-        <v>86.635006784260511</v>
+        <v>72.85307285307286</v>
       </c>
       <c r="AV6" s="0">
-        <v>83.310719131614647</v>
+        <v>72.486772486772495</v>
       </c>
       <c r="AW6" s="0">
-        <v>86.770691994572587</v>
+        <v>73.015873015873012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="B7" s="0">
-        <v>57.869742198100404</v>
+        <v>85.022385022385023</v>
       </c>
       <c r="C7" s="0">
-        <v>58.208955223880601</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="D7" s="0">
-        <v>58.412483039348707</v>
+        <v>86.080586080586087</v>
       </c>
       <c r="E7" s="0">
-        <v>57.394843962008146</v>
+        <v>88.970288970288962</v>
       </c>
       <c r="F7" s="0">
-        <v>60.651289009497965</v>
+        <v>89.662189662189661</v>
       </c>
       <c r="G7" s="0">
-        <v>60.651289009497965</v>
+        <v>89.417989417989418</v>
       </c>
       <c r="H7" s="0">
-        <v>55.223880597014926</v>
+        <v>80.138380138380143</v>
       </c>
       <c r="I7" s="0">
-        <v>56.580732700135684</v>
+        <v>81.277981277981283</v>
       </c>
       <c r="J7" s="0">
-        <v>57.055630936227949</v>
+        <v>81.03378103378104</v>
       </c>
       <c r="K7" s="0">
-        <v>55.970149253731336</v>
+        <v>80.545380545380539</v>
       </c>
       <c r="L7" s="0">
-        <v>56.919945725915881</v>
+        <v>79.446479446479444</v>
       </c>
       <c r="M7" s="0">
-        <v>56.309362279511532</v>
+        <v>81.847781847781846</v>
       </c>
       <c r="N7" s="0">
-        <v>53.79918588873813</v>
+        <v>80.219780219780219</v>
       </c>
       <c r="O7" s="0">
-        <v>53.188602442333789</v>
+        <v>80.504680504680508</v>
       </c>
       <c r="P7" s="0">
-        <v>54.613297150610585</v>
+        <v>82.4989824989825</v>
       </c>
       <c r="Q7" s="0">
-        <v>55.156037991858888</v>
+        <v>79.93487993487993</v>
       </c>
       <c r="R7" s="0">
-        <v>57.191316146540025</v>
+        <v>81.522181522181526</v>
       </c>
       <c r="S7" s="0">
-        <v>57.055630936227949</v>
+        <v>86.853886853886848</v>
       </c>
       <c r="T7" s="0">
-        <v>58.887381275440973</v>
+        <v>90.476190476190482</v>
       </c>
       <c r="U7" s="0">
-        <v>59.905020352781548</v>
+        <v>90.923890923890923</v>
       </c>
       <c r="V7" s="0">
-        <v>60.040705563093624</v>
+        <v>90.516890516890513</v>
       </c>
       <c r="W7" s="0">
-        <v>59.362279511533245</v>
+        <v>83.597883597883595</v>
       </c>
       <c r="X7" s="0">
-        <v>60.447761194029844</v>
+        <v>86.65038665038665</v>
       </c>
       <c r="Y7" s="0">
-        <v>60.719131614653996</v>
+        <v>86.080586080586087</v>
       </c>
       <c r="Z7" s="0">
-        <v>59.633649932157397</v>
+        <v>83.801383801383793</v>
       </c>
       <c r="AA7" s="0">
-        <v>57.191316146540025</v>
+        <v>83.068783068783063</v>
       </c>
       <c r="AB7" s="0">
-        <v>58.00542740841248</v>
+        <v>83.597883597883595</v>
       </c>
       <c r="AC7" s="0">
-        <v>53.45997286295794</v>
+        <v>81.400081400081405</v>
       </c>
       <c r="AD7" s="0">
-        <v>53.324287652645864</v>
+        <v>80.708180708180706</v>
       </c>
       <c r="AE7" s="0">
-        <v>51.017639077340569</v>
+        <v>80.341880341880341</v>
       </c>
       <c r="AF7" s="0">
-        <v>62.550881953867034</v>
+        <v>89.865689865689873</v>
       </c>
       <c r="AG7" s="0">
-        <v>60.854816824966072</v>
+        <v>93.121693121693113</v>
       </c>
       <c r="AH7" s="0">
-        <v>60.854816824966072</v>
+        <v>92.673992673992672</v>
       </c>
       <c r="AI7" s="0">
-        <v>59.497964721845321</v>
+        <v>87.179487179487182</v>
       </c>
       <c r="AJ7" s="0">
-        <v>60.58344640434192</v>
+        <v>91.656491656491653</v>
       </c>
       <c r="AK7" s="0">
-        <v>52.51017639077341</v>
+        <v>82.539682539682531</v>
       </c>
       <c r="AL7" s="0">
-        <v>61.668928086838534</v>
+        <v>87.993487993487989</v>
       </c>
       <c r="AM7" s="0">
-        <v>58.412483039348707</v>
+        <v>85.144485144485145</v>
       </c>
       <c r="AN7" s="0">
-        <v>58.208955223880601</v>
+        <v>84.167684167684172</v>
       </c>
       <c r="AO7" s="0">
-        <v>57.327001356852101</v>
+        <v>80.504680504680508</v>
       </c>
       <c r="AP7" s="0">
-        <v>53.663500678426054</v>
+        <v>81.725681725681724</v>
       </c>
       <c r="AQ7" s="0">
-        <v>54.274084124830388</v>
+        <v>81.359381359381359</v>
       </c>
       <c r="AR7" s="0">
-        <v>54.816824966078691</v>
+        <v>81.359381359381359</v>
       </c>
       <c r="AS7" s="0">
-        <v>56.784260515603805</v>
+        <v>84.126984126984127</v>
       </c>
       <c r="AT7" s="0">
-        <v>56.648575305291729</v>
+        <v>85.592185592185587</v>
       </c>
       <c r="AU7" s="0">
-        <v>55.495251017639077</v>
+        <v>79.812779812779809</v>
       </c>
       <c r="AV7" s="0">
-        <v>53.120759837177744</v>
+        <v>81.196581196581192</v>
       </c>
       <c r="AW7" s="0">
-        <v>56.71641791044776</v>
+        <v>81.03378103378104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>862</v>
+        <v>919</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -4042,151 +4213,151 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>863</v>
+        <v>920</v>
       </c>
       <c r="B9" s="0">
-        <v>90.7055630936228</v>
+        <v>78.057700121901661</v>
       </c>
       <c r="C9" s="0">
-        <v>90.841248303934876</v>
+        <v>77.651361235270215</v>
       </c>
       <c r="D9" s="0">
-        <v>91.044776119402982</v>
+        <v>78.017066233238523</v>
       </c>
       <c r="E9" s="0">
-        <v>89.213025780189952</v>
+        <v>79.926859000406338</v>
       </c>
       <c r="F9" s="0">
-        <v>88.738127544097694</v>
+        <v>78.179601787891102</v>
       </c>
       <c r="G9" s="0">
-        <v>89.009497964721845</v>
+        <v>80.414465664364073</v>
       </c>
       <c r="H9" s="0">
-        <v>81.614654002713706</v>
+        <v>75.822836245428689</v>
       </c>
       <c r="I9" s="0">
-        <v>83.514246947082768</v>
+        <v>77.895164567249083</v>
       </c>
       <c r="J9" s="0">
-        <v>78.697421981004069</v>
+        <v>73.872409589597723</v>
       </c>
       <c r="K9" s="0">
-        <v>80.800542740841252</v>
+        <v>76.757415684681021</v>
       </c>
       <c r="L9" s="0">
-        <v>75.373134328358205</v>
+        <v>78.13896789922795</v>
       </c>
       <c r="M9" s="0">
-        <v>80.732700135685207</v>
+        <v>80.333197887037784</v>
       </c>
       <c r="N9" s="0">
-        <v>80.5291723202171</v>
+        <v>71.271840715156443</v>
       </c>
       <c r="O9" s="0">
-        <v>79.850746268656707</v>
+        <v>72.247054043071927</v>
       </c>
       <c r="P9" s="0">
-        <v>80.461329715061055</v>
+        <v>72.003250711093045</v>
       </c>
       <c r="Q9" s="0">
-        <v>91.723202170963376</v>
+        <v>88.90694839496139</v>
       </c>
       <c r="R9" s="0">
-        <v>92.198100407055634</v>
+        <v>88.785046728971963</v>
       </c>
       <c r="S9" s="0">
-        <v>95.793758480325636</v>
+        <v>91.995123933360418</v>
       </c>
       <c r="T9" s="0">
-        <v>86.092265943012208</v>
+        <v>77.570093457943926</v>
       </c>
       <c r="U9" s="0">
-        <v>87.652645861601087</v>
+        <v>77.529459569280775</v>
       </c>
       <c r="V9" s="0">
-        <v>87.381275440976935</v>
+        <v>79.236082893132874</v>
       </c>
       <c r="W9" s="0">
-        <v>87.381275440976935</v>
+        <v>85.046728971962608</v>
       </c>
       <c r="X9" s="0">
-        <v>86.295793758480315</v>
+        <v>76.391710686712727</v>
       </c>
       <c r="Y9" s="0">
-        <v>86.431478968792391</v>
+        <v>76.107273466070708</v>
       </c>
       <c r="Z9" s="0">
-        <v>80.800542740841252</v>
+        <v>80.495733441690362</v>
       </c>
       <c r="AA9" s="0">
-        <v>80.868385345997282</v>
+        <v>80.373831775700936</v>
       </c>
       <c r="AB9" s="0">
-        <v>85.549525101763919</v>
+        <v>83.055668427468504</v>
       </c>
       <c r="AC9" s="0">
-        <v>82.15739484396201</v>
+        <v>81.023973994311262</v>
       </c>
       <c r="AD9" s="0">
-        <v>83.039348710990495</v>
+        <v>80.86143843965867</v>
       </c>
       <c r="AE9" s="0">
-        <v>82.496607869742206</v>
+        <v>79.195449004469737</v>
       </c>
       <c r="AF9" s="0">
-        <v>86.838534599728632</v>
+        <v>76.107273466070708</v>
       </c>
       <c r="AG9" s="0">
-        <v>86.974219810040708</v>
+        <v>74.197480698902879</v>
       </c>
       <c r="AH9" s="0">
-        <v>90.773405698778831</v>
+        <v>81.552214546932149</v>
       </c>
       <c r="AI9" s="0">
-        <v>83.514246947082768</v>
+        <v>75.050792360828936</v>
       </c>
       <c r="AJ9" s="0">
-        <v>82.767978290366358</v>
+        <v>74.806989028850055</v>
       </c>
       <c r="AK9" s="0">
-        <v>83.039348710990495</v>
+        <v>73.709874034945145</v>
       </c>
       <c r="AL9" s="0">
-        <v>80.122116689280858</v>
+        <v>74.603819585534339</v>
       </c>
       <c r="AM9" s="0">
-        <v>86.567164179104466</v>
+        <v>75.294595692807803</v>
       </c>
       <c r="AN9" s="0">
-        <v>86.227951153324284</v>
+        <v>75.335229581470941</v>
       </c>
       <c r="AO9" s="0">
-        <v>81.004070556309358</v>
+        <v>80.292563998374646</v>
       </c>
       <c r="AP9" s="0">
-        <v>83.039348710990495</v>
+        <v>81.227143437626978</v>
       </c>
       <c r="AQ9" s="0">
-        <v>84.73541383989145</v>
+        <v>82.121088988216172</v>
       </c>
       <c r="AR9" s="0">
-        <v>78.629579375848039</v>
+        <v>78.626574563185699</v>
       </c>
       <c r="AS9" s="0">
-        <v>86.499321573948436</v>
+        <v>86.021942299878091</v>
       </c>
       <c r="AT9" s="0">
-        <v>86.838534599728632</v>
+        <v>85.29053230394149</v>
       </c>
       <c r="AU9" s="0">
-        <v>79.375848032564448</v>
+        <v>79.073547338480282</v>
       </c>
       <c r="AV9" s="0">
-        <v>81.682496607869737</v>
+        <v>78.464039008533121</v>
       </c>
       <c r="AW9" s="0">
-        <v>89.416553595658073</v>
+        <v>83.58390898008939</v>
       </c>
     </row>
   </sheetData>
